--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1940"/>
+  <dimension ref="A1:G1908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50801,10 +50801,8 @@
       </c>
       <c r="E1848" t="inlineStr"/>
       <c r="F1848" t="inlineStr"/>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -50830,10 +50828,8 @@
           <t>290K</t>
         </is>
       </c>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -50863,10 +50859,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1851">
@@ -50896,10 +50890,8 @@
           <t>1844.0K</t>
         </is>
       </c>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -50925,10 +50917,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -50958,10 +50948,8 @@
           <t>50.7</t>
         </is>
       </c>
-      <c r="G1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -50991,10 +50979,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="G1854" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1854" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1855">
@@ -51020,10 +51006,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="G1855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1856">
@@ -51053,10 +51037,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -51082,10 +51064,8 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="G1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -51115,10 +51095,8 @@
           <t>70</t>
         </is>
       </c>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -51144,10 +51122,8 @@
         </is>
       </c>
       <c r="F1859" t="inlineStr"/>
-      <c r="G1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -51169,10 +51145,8 @@
       </c>
       <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr"/>
-      <c r="G1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -51194,10 +51168,8 @@
       </c>
       <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr"/>
-      <c r="G1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -51219,10 +51191,8 @@
       </c>
       <c r="E1862" t="inlineStr"/>
       <c r="F1862" t="inlineStr"/>
-      <c r="G1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
@@ -51244,40 +51214,54 @@
       </c>
       <c r="E1863" t="inlineStr"/>
       <c r="F1863" t="inlineStr"/>
-      <c r="G1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
       <c r="A1864" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
-        </is>
-      </c>
-      <c r="B1864" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>ImportsMAR</t>
+        </is>
+      </c>
       <c r="C1864" t="inlineStr"/>
-      <c r="D1864" t="inlineStr"/>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>$401.1B</t>
+        </is>
+      </c>
       <c r="E1864" t="inlineStr"/>
-      <c r="F1864" t="inlineStr"/>
-      <c r="G1864" t="inlineStr"/>
+      <c r="F1864" t="inlineStr">
+        <is>
+          <t>$417.6B</t>
+        </is>
+      </c>
+      <c r="G1864" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1865">
       <c r="A1865" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/30</t>
+          <t>Redbook YoYMAY/03</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr"/>
       <c r="D1865" t="inlineStr">
         <is>
-          <t>$6.73T</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="E1865" t="inlineStr"/>
@@ -51291,158 +51275,110 @@
     <row r="1866">
       <c r="A1866" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:40 PM</t>
         </is>
       </c>
       <c r="B1866" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>RCM/TIPP Economic Optimism IndexMAY</t>
         </is>
       </c>
       <c r="C1866" t="inlineStr"/>
       <c r="D1866" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1866" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
+          <t>49.1</t>
+        </is>
+      </c>
+      <c r="E1866" t="inlineStr"/>
       <c r="F1866" t="inlineStr">
         <is>
-          <t>140K</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="G1866" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1867">
       <c r="A1867" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1867" t="inlineStr">
         <is>
-          <t>Unemployment RateAPR</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C1867" t="inlineStr"/>
       <c r="D1867" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1867" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1867" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>4.435%</t>
+        </is>
+      </c>
+      <c r="E1867" t="inlineStr"/>
+      <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1868">
-      <c r="A1868" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1868" t="inlineStr"/>
       <c r="B1868" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>LMI Logistics Managers IndexAPR</t>
         </is>
       </c>
       <c r="C1868" t="inlineStr"/>
       <c r="D1868" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1868" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1868" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>57.1</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr"/>
+      <c r="F1868" t="inlineStr"/>
       <c r="G1868" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1869">
       <c r="A1869" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1869" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYAPR</t>
-        </is>
-      </c>
+          <t>Wednesday May 07 2025</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr"/>
       <c r="C1869" t="inlineStr"/>
-      <c r="D1869" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1869" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1869" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="G1869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D1869" t="inlineStr"/>
+      <c r="E1869" t="inlineStr"/>
+      <c r="F1869" t="inlineStr"/>
+      <c r="G1869" t="inlineStr"/>
     </row>
     <row r="1870">
       <c r="A1870" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1870" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>API Crude Oil Stock ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1870" t="inlineStr"/>
       <c r="D1870" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>3.76M</t>
         </is>
       </c>
       <c r="E1870" t="inlineStr"/>
-      <c r="F1870" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F1870" t="inlineStr"/>
       <c r="G1870" t="inlineStr">
         <is>
           <t>2</t>
@@ -51452,59 +51388,47 @@
     <row r="1871">
       <c r="A1871" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1871" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>MBA 30-Year Mortgage RateMAY/02</t>
         </is>
       </c>
       <c r="C1871" t="inlineStr"/>
       <c r="D1871" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1871" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1871" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E1871" t="inlineStr"/>
+      <c r="F1871" t="inlineStr"/>
       <c r="G1871" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1872">
       <c r="A1872" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1872" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>MBA Mortgage ApplicationsMAY/02</t>
         </is>
       </c>
       <c r="C1872" t="inlineStr"/>
       <c r="D1872" t="inlineStr">
         <is>
-          <t>19K</t>
+          <t>-4.2%</t>
         </is>
       </c>
       <c r="E1872" t="inlineStr"/>
-      <c r="F1872" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="F1872" t="inlineStr"/>
       <c r="G1872" t="inlineStr">
         <is>
           <t>3</t>
@@ -51514,30 +51438,22 @@
     <row r="1873">
       <c r="A1873" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>MBA Mortgage Market IndexMAY/02</t>
         </is>
       </c>
       <c r="C1873" t="inlineStr"/>
       <c r="D1873" t="inlineStr">
         <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="F1873" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>223.7</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr"/>
+      <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr">
         <is>
           <t>3</t>
@@ -51547,30 +51463,22 @@
     <row r="1874">
       <c r="A1874" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1874" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/02</t>
         </is>
       </c>
       <c r="C1874" t="inlineStr"/>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1874" t="inlineStr">
-        <is>
-          <t>124K</t>
-        </is>
-      </c>
-      <c r="F1874" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
+          <t>649.0</t>
+        </is>
+      </c>
+      <c r="E1874" t="inlineStr"/>
+      <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr">
         <is>
           <t>3</t>
@@ -51580,59 +51488,47 @@
     <row r="1875">
       <c r="A1875" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1875" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1875" t="inlineStr"/>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>-2.696M</t>
         </is>
       </c>
       <c r="E1875" t="inlineStr"/>
-      <c r="F1875" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
+      <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1876" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
+          <t>EIA Gasoline Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1876" t="inlineStr"/>
       <c r="D1876" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1876" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1876" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>-4.002M</t>
+        </is>
+      </c>
+      <c r="E1876" t="inlineStr"/>
+      <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr">
         <is>
           <t>2</t>
@@ -51642,26 +51538,22 @@
     <row r="1877">
       <c r="A1877" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>EIA Crude Oil Imports ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1877" t="inlineStr"/>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.663M</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr"/>
-      <c r="F1877" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1877" t="inlineStr"/>
       <c r="G1877" t="inlineStr">
         <is>
           <t>3</t>
@@ -51671,18 +51563,18 @@
     <row r="1878">
       <c r="A1878" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1878" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1878" t="inlineStr"/>
       <c r="D1878" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>0.682M</t>
         </is>
       </c>
       <c r="E1878" t="inlineStr"/>
@@ -51696,18 +51588,18 @@
     <row r="1879">
       <c r="A1879" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1879" t="inlineStr"/>
       <c r="D1879" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>-0.017M</t>
         </is>
       </c>
       <c r="E1879" t="inlineStr"/>
@@ -51719,23 +51611,23 @@
       </c>
     </row>
     <row r="1880">
-      <c r="A1880" t="inlineStr"/>
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
       <c r="B1880" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1880" t="inlineStr"/>
       <c r="D1880" t="inlineStr">
         <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1880" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
+          <t>0.937M</t>
+        </is>
+      </c>
+      <c r="E1880" t="inlineStr"/>
       <c r="F1880" t="inlineStr"/>
       <c r="G1880" t="inlineStr">
         <is>
@@ -51746,56 +51638,72 @@
     <row r="1881">
       <c r="A1881" t="inlineStr">
         <is>
-          <t>Saturday May 03 2025</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr"/>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>-0.616M</t>
+        </is>
+      </c>
       <c r="E1881" t="inlineStr"/>
       <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr"/>
+      <c r="G1881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1882">
       <c r="A1882" t="inlineStr">
         <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1882" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1882" t="inlineStr"/>
-      <c r="D1882" t="inlineStr"/>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>0.252M</t>
+        </is>
+      </c>
       <c r="E1882" t="inlineStr"/>
       <c r="F1882" t="inlineStr"/>
-      <c r="G1882" t="inlineStr"/>
+      <c r="G1882" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1883">
       <c r="A1883" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1883" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1883" t="inlineStr"/>
       <c r="D1883" t="inlineStr">
         <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1883" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>0.189M</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr"/>
+      <c r="F1883" t="inlineStr"/>
       <c r="G1883" t="inlineStr">
         <is>
           <t>3</t>
@@ -51805,30 +51713,22 @@
     <row r="1884">
       <c r="A1884" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1884" t="inlineStr"/>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1884" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F1884" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>4.190%</t>
+        </is>
+      </c>
+      <c r="E1884" t="inlineStr"/>
+      <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr">
         <is>
           <t>3</t>
@@ -51838,24 +51738,24 @@
     <row r="1885">
       <c r="A1885" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1885" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C1885" t="inlineStr"/>
       <c r="D1885" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E1885" t="inlineStr"/>
       <c r="F1885" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G1885" t="inlineStr">
@@ -51865,140 +51765,104 @@
       </c>
     </row>
     <row r="1886">
-      <c r="A1886" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1886" t="inlineStr"/>
       <c r="B1886" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityAPR</t>
+          <t>Used Car Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1886" t="inlineStr"/>
       <c r="D1886" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+      <c r="F1886" t="inlineStr"/>
       <c r="G1886" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1887">
-      <c r="A1887" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1887" t="inlineStr"/>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentAPR</t>
+          <t>Used Car Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr"/>
       <c r="D1887" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
+      <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1888">
       <c r="A1888" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1888" t="inlineStr">
-        <is>
-          <t>ISM Services New OrdersAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr"/>
       <c r="C1888" t="inlineStr"/>
-      <c r="D1888" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="D1888" t="inlineStr"/>
       <c r="E1888" t="inlineStr"/>
-      <c r="F1888" t="inlineStr">
-        <is>
-          <t>49.2</t>
-        </is>
-      </c>
-      <c r="G1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1888" t="inlineStr"/>
+      <c r="G1888" t="inlineStr"/>
     </row>
     <row r="1889">
       <c r="A1889" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>ISM Services PricesAPR</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr"/>
-      <c r="D1889" t="inlineStr">
-        <is>
-          <t>60.9</t>
-        </is>
-      </c>
+      <c r="D1889" t="inlineStr"/>
       <c r="E1889" t="inlineStr"/>
-      <c r="F1889" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
+      <c r="F1889" t="inlineStr"/>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1890">
       <c r="A1890" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Consumer Credit ChangeMAR</t>
         </is>
       </c>
       <c r="C1890" t="inlineStr"/>
       <c r="D1890" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>$-0.81B</t>
         </is>
       </c>
       <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr"/>
+      <c r="F1890" t="inlineStr">
+        <is>
+          <t>$2.0B</t>
+        </is>
+      </c>
       <c r="G1890" t="inlineStr">
         <is>
           <t>3</t>
@@ -52008,65 +51872,85 @@
     <row r="1891">
       <c r="A1891" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1891" t="inlineStr"/>
-      <c r="D1891" t="inlineStr">
-        <is>
-          <t>4.065%</t>
-        </is>
-      </c>
+      <c r="D1891" t="inlineStr"/>
       <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr"/>
+      <c r="F1891" t="inlineStr">
+        <is>
+          <t>231.0K</t>
+        </is>
+      </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1892">
       <c r="A1892" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1892" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1892" t="inlineStr"/>
       <c r="D1892" t="inlineStr">
         <is>
-          <t>3.784%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr"/>
+      <c r="F1892" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1892" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1893">
       <c r="A1893" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
-        </is>
-      </c>
-      <c r="B1893" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
+        </is>
+      </c>
       <c r="C1893" t="inlineStr"/>
-      <c r="D1893" t="inlineStr"/>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="E1893" t="inlineStr"/>
-      <c r="F1893" t="inlineStr"/>
-      <c r="G1893" t="inlineStr"/>
+      <c r="F1893" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="G1893" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1894">
       <c r="A1894" t="inlineStr">
@@ -52076,24 +51960,20 @@
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>Balance of TradeMAR</t>
+          <t>Continuing Jobless ClaimsAPR/26</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr"/>
-      <c r="D1894" t="inlineStr">
-        <is>
-          <t>$-122.7B</t>
-        </is>
-      </c>
+      <c r="D1894" t="inlineStr"/>
       <c r="E1894" t="inlineStr"/>
       <c r="F1894" t="inlineStr">
         <is>
-          <t>$-137.1B</t>
+          <t>1850.0K</t>
         </is>
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52105,73 +51985,69 @@
       </c>
       <c r="B1895" t="inlineStr">
         <is>
-          <t>ExportsMAR</t>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
         </is>
       </c>
       <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr">
-        <is>
-          <t>$278.5B</t>
-        </is>
-      </c>
+      <c r="D1895" t="inlineStr"/>
       <c r="E1895" t="inlineStr"/>
       <c r="F1895" t="inlineStr">
         <is>
-          <t>$280.5B</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t>ImportsMAR</t>
+          <t>Wholesale Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1896" t="inlineStr"/>
       <c r="D1896" t="inlineStr">
         <is>
-          <t>$401.1B</t>
-        </is>
-      </c>
-      <c r="E1896" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1896" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1896" t="inlineStr">
         <is>
-          <t>$417.6B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G1896" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/03</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr"/>
-      <c r="D1897" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="D1897" t="inlineStr"/>
       <c r="E1897" t="inlineStr"/>
       <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr">
@@ -52183,26 +52059,18 @@
     <row r="1898">
       <c r="A1898" t="inlineStr">
         <is>
-          <t>07:40 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1898" t="inlineStr"/>
-      <c r="D1898" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
+      <c r="D1898" t="inlineStr"/>
       <c r="E1898" t="inlineStr"/>
-      <c r="F1898" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="F1898" t="inlineStr"/>
       <c r="G1898" t="inlineStr">
         <is>
           <t>3</t>
@@ -52212,20 +52080,16 @@
     <row r="1899">
       <c r="A1899" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr"/>
-      <c r="D1899" t="inlineStr">
-        <is>
-          <t>4.435%</t>
-        </is>
-      </c>
+      <c r="D1899" t="inlineStr"/>
       <c r="E1899" t="inlineStr"/>
       <c r="F1899" t="inlineStr"/>
       <c r="G1899" t="inlineStr">
@@ -52235,18 +52099,18 @@
       </c>
     </row>
     <row r="1900">
-      <c r="A1900" t="inlineStr"/>
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B1900" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexAPR</t>
+          <t>15-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1900" t="inlineStr"/>
-      <c r="D1900" t="inlineStr">
-        <is>
-          <t>57.1</t>
-        </is>
-      </c>
+      <c r="D1900" t="inlineStr"/>
       <c r="E1900" t="inlineStr"/>
       <c r="F1900" t="inlineStr"/>
       <c r="G1900" t="inlineStr">
@@ -52258,83 +52122,75 @@
     <row r="1901">
       <c r="A1901" t="inlineStr">
         <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1901" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateMAY/08</t>
+        </is>
+      </c>
       <c r="C1901" t="inlineStr"/>
       <c r="D1901" t="inlineStr"/>
       <c r="E1901" t="inlineStr"/>
       <c r="F1901" t="inlineStr"/>
-      <c r="G1901" t="inlineStr"/>
+      <c r="G1901" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1902">
       <c r="A1902" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1902" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1902" t="inlineStr"/>
       <c r="D1902" t="inlineStr">
         <is>
-          <t>3.76M</t>
+          <t>4.813%</t>
         </is>
       </c>
       <c r="E1902" t="inlineStr"/>
       <c r="F1902" t="inlineStr"/>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1903">
       <c r="A1903" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1903" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
-        </is>
-      </c>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr"/>
       <c r="C1903" t="inlineStr"/>
-      <c r="D1903" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
+      <c r="D1903" t="inlineStr"/>
       <c r="E1903" t="inlineStr"/>
       <c r="F1903" t="inlineStr"/>
-      <c r="G1903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1903" t="inlineStr"/>
     </row>
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>-4.2%</t>
-        </is>
-      </c>
+      <c r="D1904" t="inlineStr"/>
       <c r="E1904" t="inlineStr"/>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr">
@@ -52346,20 +52202,16 @@
     <row r="1905">
       <c r="A1905" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr">
-        <is>
-          <t>223.7</t>
-        </is>
-      </c>
+      <c r="D1905" t="inlineStr"/>
       <c r="E1905" t="inlineStr"/>
       <c r="F1905" t="inlineStr"/>
       <c r="G1905" t="inlineStr">
@@ -52371,20 +52223,16 @@
     <row r="1906">
       <c r="A1906" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr">
-        <is>
-          <t>649.0</t>
-        </is>
-      </c>
+      <c r="D1906" t="inlineStr"/>
       <c r="E1906" t="inlineStr"/>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr">
@@ -52396,784 +52244,28 @@
     <row r="1907">
       <c r="A1907" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Saturday May 10 2025</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr"/>
       <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr">
-        <is>
-          <t>-2.696M</t>
-        </is>
-      </c>
+      <c r="D1907" t="inlineStr"/>
       <c r="E1907" t="inlineStr"/>
       <c r="F1907" t="inlineStr"/>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1907" t="inlineStr"/>
     </row>
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr"/>
       <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr">
-        <is>
-          <t>-4.002M</t>
-        </is>
-      </c>
+      <c r="D1908" t="inlineStr"/>
       <c r="E1908" t="inlineStr"/>
       <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1909" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1909" t="inlineStr"/>
-      <c r="D1909" t="inlineStr">
-        <is>
-          <t>-0.663M</t>
-        </is>
-      </c>
-      <c r="E1909" t="inlineStr"/>
-      <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1910" t="inlineStr"/>
-      <c r="D1910" t="inlineStr">
-        <is>
-          <t>0.682M</t>
-        </is>
-      </c>
-      <c r="E1910" t="inlineStr"/>
-      <c r="F1910" t="inlineStr"/>
-      <c r="G1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1911" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1911" t="inlineStr"/>
-      <c r="D1911" t="inlineStr">
-        <is>
-          <t>-0.017M</t>
-        </is>
-      </c>
-      <c r="E1911" t="inlineStr"/>
-      <c r="F1911" t="inlineStr"/>
-      <c r="G1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1912" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1912" t="inlineStr"/>
-      <c r="D1912" t="inlineStr">
-        <is>
-          <t>0.937M</t>
-        </is>
-      </c>
-      <c r="E1912" t="inlineStr"/>
-      <c r="F1912" t="inlineStr"/>
-      <c r="G1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1913" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1913" t="inlineStr"/>
-      <c r="D1913" t="inlineStr">
-        <is>
-          <t>-0.616M</t>
-        </is>
-      </c>
-      <c r="E1913" t="inlineStr"/>
-      <c r="F1913" t="inlineStr"/>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1914" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1914" t="inlineStr"/>
-      <c r="D1914" t="inlineStr">
-        <is>
-          <t>0.252M</t>
-        </is>
-      </c>
-      <c r="E1914" t="inlineStr"/>
-      <c r="F1914" t="inlineStr"/>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1915" t="inlineStr"/>
-      <c r="D1915" t="inlineStr">
-        <is>
-          <t>0.189M</t>
-        </is>
-      </c>
-      <c r="E1915" t="inlineStr"/>
-      <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E1916" t="inlineStr"/>
-      <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1917" t="inlineStr"/>
-      <c r="D1917" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1917" t="inlineStr"/>
-      <c r="F1917" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="inlineStr"/>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1918" t="inlineStr"/>
-      <c r="D1918" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1918" t="inlineStr"/>
-      <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="inlineStr"/>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1919" t="inlineStr"/>
-      <c r="D1919" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1919" t="inlineStr"/>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1920" t="inlineStr"/>
-      <c r="C1920" t="inlineStr"/>
-      <c r="D1920" t="inlineStr"/>
-      <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr"/>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1921" t="inlineStr"/>
-      <c r="D1921" t="inlineStr"/>
-      <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeMAR</t>
-        </is>
-      </c>
-      <c r="C1922" t="inlineStr"/>
-      <c r="D1922" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1922" t="inlineStr"/>
-      <c r="F1922" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr"/>
-      <c r="E1923" t="inlineStr"/>
-      <c r="F1923" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1924" t="inlineStr"/>
-      <c r="D1924" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1924" t="inlineStr"/>
-      <c r="F1924" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr"/>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr"/>
-      <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>1850.0K</t>
-        </is>
-      </c>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
-        </is>
-      </c>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr"/>
-      <c r="E1927" t="inlineStr"/>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1928" t="inlineStr"/>
-      <c r="D1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr"/>
-      <c r="D1929" t="inlineStr"/>
-      <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr"/>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1930" t="inlineStr"/>
-      <c r="D1930" t="inlineStr"/>
-      <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr"/>
-      <c r="D1931" t="inlineStr"/>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1932" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr"/>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1933">
-      <c r="A1933" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1933" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1933" t="inlineStr"/>
-      <c r="D1933" t="inlineStr"/>
-      <c r="E1933" t="inlineStr"/>
-      <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1934">
-      <c r="A1934" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1934" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1934" t="inlineStr"/>
-      <c r="D1934" t="inlineStr">
-        <is>
-          <t>4.813%</t>
-        </is>
-      </c>
-      <c r="E1934" t="inlineStr"/>
-      <c r="F1934" t="inlineStr"/>
-      <c r="G1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1935">
-      <c r="A1935" t="inlineStr">
-        <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1935" t="inlineStr"/>
-      <c r="C1935" t="inlineStr"/>
-      <c r="D1935" t="inlineStr"/>
-      <c r="E1935" t="inlineStr"/>
-      <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr"/>
-    </row>
-    <row r="1936">
-      <c r="A1936" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1936" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1936" t="inlineStr"/>
-      <c r="D1936" t="inlineStr"/>
-      <c r="E1936" t="inlineStr"/>
-      <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1937">
-      <c r="A1937" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1937" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1937" t="inlineStr"/>
-      <c r="D1937" t="inlineStr"/>
-      <c r="E1937" t="inlineStr"/>
-      <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1938">
-      <c r="A1938" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1938" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1938" t="inlineStr"/>
-      <c r="D1938" t="inlineStr"/>
-      <c r="E1938" t="inlineStr"/>
-      <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1939">
-      <c r="A1939" t="inlineStr">
-        <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1939" t="inlineStr"/>
-      <c r="C1939" t="inlineStr"/>
-      <c r="D1939" t="inlineStr"/>
-      <c r="E1939" t="inlineStr"/>
-      <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr"/>
-    </row>
-    <row r="1940">
-      <c r="A1940" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1940" t="inlineStr"/>
-      <c r="C1940" t="inlineStr"/>
-      <c r="D1940" t="inlineStr"/>
-      <c r="E1940" t="inlineStr"/>
-      <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr"/>
+      <c r="G1908" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1940"/>
+  <dimension ref="A1:G1908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50801,10 +50801,8 @@
           <t>290K</t>
         </is>
       </c>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -50834,10 +50832,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1850">
@@ -50867,10 +50863,8 @@
           <t>1844.0K</t>
         </is>
       </c>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1851">
@@ -50896,10 +50890,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -50929,10 +50921,8 @@
           <t>50.7</t>
         </is>
       </c>
-      <c r="G1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -50962,10 +50952,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="G1853" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1853" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1854">
@@ -50991,10 +50979,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="G1854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1855">
@@ -51024,10 +51010,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -51053,10 +51037,8 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="G1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -51086,10 +51068,8 @@
           <t>70</t>
         </is>
       </c>
-      <c r="G1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -51115,10 +51095,8 @@
         </is>
       </c>
       <c r="F1858" t="inlineStr"/>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -51140,10 +51118,8 @@
       </c>
       <c r="E1859" t="inlineStr"/>
       <c r="F1859" t="inlineStr"/>
-      <c r="G1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -51165,10 +51141,8 @@
       </c>
       <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr"/>
-      <c r="G1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -51190,10 +51164,8 @@
       </c>
       <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr"/>
-      <c r="G1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -51215,40 +51187,54 @@
       </c>
       <c r="E1862" t="inlineStr"/>
       <c r="F1862" t="inlineStr"/>
-      <c r="G1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
-        </is>
-      </c>
-      <c r="B1863" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>ImportsMAR</t>
+        </is>
+      </c>
       <c r="C1863" t="inlineStr"/>
-      <c r="D1863" t="inlineStr"/>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>$401.1B</t>
+        </is>
+      </c>
       <c r="E1863" t="inlineStr"/>
-      <c r="F1863" t="inlineStr"/>
-      <c r="G1863" t="inlineStr"/>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>$417.6B</t>
+        </is>
+      </c>
+      <c r="G1863" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1864">
       <c r="A1864" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/30</t>
+          <t>Redbook YoYMAY/03</t>
         </is>
       </c>
       <c r="C1864" t="inlineStr"/>
       <c r="D1864" t="inlineStr">
         <is>
-          <t>$6.73T</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="E1864" t="inlineStr"/>
@@ -51262,158 +51248,110 @@
     <row r="1865">
       <c r="A1865" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:40 PM</t>
         </is>
       </c>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>RCM/TIPP Economic Optimism IndexMAY</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr"/>
       <c r="D1865" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1865" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
+          <t>49.1</t>
+        </is>
+      </c>
+      <c r="E1865" t="inlineStr"/>
       <c r="F1865" t="inlineStr">
         <is>
-          <t>140K</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1866" t="inlineStr">
         <is>
-          <t>Unemployment RateAPR</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C1866" t="inlineStr"/>
       <c r="D1866" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>4.435%</t>
+        </is>
+      </c>
+      <c r="E1866" t="inlineStr"/>
+      <c r="F1866" t="inlineStr"/>
       <c r="G1866" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1867">
-      <c r="A1867" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1867" t="inlineStr"/>
       <c r="B1867" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>LMI Logistics Managers IndexAPR</t>
         </is>
       </c>
       <c r="C1867" t="inlineStr"/>
       <c r="D1867" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1867" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1867" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>57.1</t>
+        </is>
+      </c>
+      <c r="E1867" t="inlineStr"/>
+      <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1868">
       <c r="A1868" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1868" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYAPR</t>
-        </is>
-      </c>
+          <t>Wednesday May 07 2025</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr"/>
       <c r="C1868" t="inlineStr"/>
-      <c r="D1868" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1868" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1868" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="G1868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D1868" t="inlineStr"/>
+      <c r="E1868" t="inlineStr"/>
+      <c r="F1868" t="inlineStr"/>
+      <c r="G1868" t="inlineStr"/>
     </row>
     <row r="1869">
       <c r="A1869" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1869" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>API Crude Oil Stock ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1869" t="inlineStr"/>
       <c r="D1869" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>3.76M</t>
         </is>
       </c>
       <c r="E1869" t="inlineStr"/>
-      <c r="F1869" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F1869" t="inlineStr"/>
       <c r="G1869" t="inlineStr">
         <is>
           <t>2</t>
@@ -51423,59 +51361,47 @@
     <row r="1870">
       <c r="A1870" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1870" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>MBA 30-Year Mortgage RateMAY/02</t>
         </is>
       </c>
       <c r="C1870" t="inlineStr"/>
       <c r="D1870" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1870" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1870" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr"/>
+      <c r="F1870" t="inlineStr"/>
       <c r="G1870" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1871">
       <c r="A1871" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1871" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>MBA Mortgage ApplicationsMAY/02</t>
         </is>
       </c>
       <c r="C1871" t="inlineStr"/>
       <c r="D1871" t="inlineStr">
         <is>
-          <t>19K</t>
+          <t>-4.2%</t>
         </is>
       </c>
       <c r="E1871" t="inlineStr"/>
-      <c r="F1871" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="F1871" t="inlineStr"/>
       <c r="G1871" t="inlineStr">
         <is>
           <t>3</t>
@@ -51485,30 +51411,22 @@
     <row r="1872">
       <c r="A1872" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1872" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>MBA Mortgage Market IndexMAY/02</t>
         </is>
       </c>
       <c r="C1872" t="inlineStr"/>
       <c r="D1872" t="inlineStr">
         <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="F1872" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>223.7</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr"/>
+      <c r="F1872" t="inlineStr"/>
       <c r="G1872" t="inlineStr">
         <is>
           <t>3</t>
@@ -51518,30 +51436,22 @@
     <row r="1873">
       <c r="A1873" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/02</t>
         </is>
       </c>
       <c r="C1873" t="inlineStr"/>
       <c r="D1873" t="inlineStr">
         <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr">
-        <is>
-          <t>124K</t>
-        </is>
-      </c>
-      <c r="F1873" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
+          <t>649.0</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr"/>
+      <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr">
         <is>
           <t>3</t>
@@ -51551,26 +51461,22 @@
     <row r="1874">
       <c r="A1874" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1874" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>MBA Purchase IndexMAY/02</t>
         </is>
       </c>
       <c r="C1874" t="inlineStr"/>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>146.6</t>
         </is>
       </c>
       <c r="E1874" t="inlineStr"/>
-      <c r="F1874" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
+      <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr">
         <is>
           <t>3</t>
@@ -51580,30 +51486,22 @@
     <row r="1875">
       <c r="A1875" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1875" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1875" t="inlineStr"/>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1875" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1875" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>-2.696M</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr"/>
+      <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr">
         <is>
           <t>2</t>
@@ -51613,47 +51511,43 @@
     <row r="1876">
       <c r="A1876" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1876" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>EIA Gasoline Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1876" t="inlineStr"/>
       <c r="D1876" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-4.002M</t>
         </is>
       </c>
       <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1877">
       <c r="A1877" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>EIA Crude Oil Imports ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1877" t="inlineStr"/>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>-0.663M</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr"/>
@@ -51667,18 +51561,18 @@
     <row r="1878">
       <c r="A1878" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1878" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1878" t="inlineStr"/>
       <c r="D1878" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>0.682M</t>
         </is>
       </c>
       <c r="E1878" t="inlineStr"/>
@@ -51690,23 +51584,23 @@
       </c>
     </row>
     <row r="1879">
-      <c r="A1879" t="inlineStr"/>
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1879" t="inlineStr"/>
       <c r="D1879" t="inlineStr">
         <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
+          <t>-0.017M</t>
+        </is>
+      </c>
+      <c r="E1879" t="inlineStr"/>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr">
         <is>
@@ -51717,56 +51611,72 @@
     <row r="1880">
       <c r="A1880" t="inlineStr">
         <is>
-          <t>Saturday May 03 2025</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1880" t="inlineStr"/>
-      <c r="D1880" t="inlineStr"/>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>0.937M</t>
+        </is>
+      </c>
       <c r="E1880" t="inlineStr"/>
       <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr"/>
+      <c r="G1880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1881">
       <c r="A1881" t="inlineStr">
         <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr"/>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>-0.616M</t>
+        </is>
+      </c>
       <c r="E1881" t="inlineStr"/>
       <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr"/>
+      <c r="G1881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1882">
       <c r="A1882" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1882" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1882" t="inlineStr"/>
       <c r="D1882" t="inlineStr">
         <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1882" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1882" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>0.252M</t>
+        </is>
+      </c>
+      <c r="E1882" t="inlineStr"/>
+      <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr">
         <is>
           <t>3</t>
@@ -51776,30 +51686,22 @@
     <row r="1883">
       <c r="A1883" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1883" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1883" t="inlineStr"/>
       <c r="D1883" t="inlineStr">
         <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F1883" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>0.189M</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr"/>
+      <c r="F1883" t="inlineStr"/>
       <c r="G1883" t="inlineStr">
         <is>
           <t>3</t>
@@ -51809,192 +51711,156 @@
     <row r="1884">
       <c r="A1884" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1884" t="inlineStr"/>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>4.190%</t>
         </is>
       </c>
       <c r="E1884" t="inlineStr"/>
-      <c r="F1884" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+      <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1885">
       <c r="A1885" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1885" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityAPR</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C1885" t="inlineStr"/>
       <c r="D1885" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E1885" t="inlineStr"/>
       <c r="F1885" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1886">
-      <c r="A1886" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1886" t="inlineStr"/>
       <c r="B1886" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentAPR</t>
+          <t>Used Car Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1886" t="inlineStr"/>
       <c r="D1886" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
+      <c r="F1886" t="inlineStr"/>
       <c r="G1886" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1887">
-      <c r="A1887" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1887" t="inlineStr"/>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersAPR</t>
+          <t>Used Car Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr"/>
       <c r="D1887" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>49.2</t>
-        </is>
-      </c>
+      <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1888">
       <c r="A1888" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1888" t="inlineStr">
-        <is>
-          <t>ISM Services PricesAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr"/>
       <c r="C1888" t="inlineStr"/>
-      <c r="D1888" t="inlineStr">
-        <is>
-          <t>60.9</t>
-        </is>
-      </c>
+      <c r="D1888" t="inlineStr"/>
       <c r="E1888" t="inlineStr"/>
-      <c r="F1888" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
-      <c r="G1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1888" t="inlineStr"/>
+      <c r="G1888" t="inlineStr"/>
     </row>
     <row r="1889">
       <c r="A1889" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr"/>
-      <c r="D1889" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D1889" t="inlineStr"/>
       <c r="E1889" t="inlineStr"/>
       <c r="F1889" t="inlineStr"/>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1890">
       <c r="A1890" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Consumer Credit ChangeMAR</t>
         </is>
       </c>
       <c r="C1890" t="inlineStr"/>
       <c r="D1890" t="inlineStr">
         <is>
-          <t>4.065%</t>
+          <t>$-0.81B</t>
         </is>
       </c>
       <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr"/>
+      <c r="F1890" t="inlineStr">
+        <is>
+          <t>$2.0B</t>
+        </is>
+      </c>
       <c r="G1890" t="inlineStr">
         <is>
           <t>3</t>
@@ -52004,40 +51870,56 @@
     <row r="1891">
       <c r="A1891" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1891" t="inlineStr"/>
-      <c r="D1891" t="inlineStr">
-        <is>
-          <t>3.784%</t>
-        </is>
-      </c>
+      <c r="D1891" t="inlineStr"/>
       <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr"/>
+      <c r="F1891" t="inlineStr">
+        <is>
+          <t>231.0K</t>
+        </is>
+      </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1892">
       <c r="A1892" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
+        </is>
+      </c>
       <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr"/>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr"/>
-      <c r="G1892" t="inlineStr"/>
+      <c r="F1892" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="G1892" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1893">
       <c r="A1893" t="inlineStr">
@@ -52047,19 +51929,19 @@
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>Balance of TradeMAR</t>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr"/>
       <c r="D1893" t="inlineStr">
         <is>
-          <t>$-122.7B</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E1893" t="inlineStr"/>
       <c r="F1893" t="inlineStr">
         <is>
-          <t>$-137.1B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G1893" t="inlineStr">
@@ -52076,24 +51958,20 @@
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>ExportsMAR</t>
+          <t>Continuing Jobless ClaimsAPR/26</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr"/>
-      <c r="D1894" t="inlineStr">
-        <is>
-          <t>$278.5B</t>
-        </is>
-      </c>
+      <c r="D1894" t="inlineStr"/>
       <c r="E1894" t="inlineStr"/>
       <c r="F1894" t="inlineStr">
         <is>
-          <t>$280.5B</t>
+          <t>1850.0K</t>
         </is>
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -52105,46 +51983,50 @@
       </c>
       <c r="B1895" t="inlineStr">
         <is>
-          <t>ImportsMAR</t>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
         </is>
       </c>
       <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr">
-        <is>
-          <t>$401.1B</t>
-        </is>
-      </c>
+      <c r="D1895" t="inlineStr"/>
       <c r="E1895" t="inlineStr"/>
       <c r="F1895" t="inlineStr">
         <is>
-          <t>$417.6B</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/03</t>
+          <t>Wholesale Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1896" t="inlineStr"/>
       <c r="D1896" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="E1896" t="inlineStr"/>
-      <c r="F1896" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1896" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F1896" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1896" t="inlineStr">
         <is>
           <t>3</t>
@@ -52154,26 +52036,18 @@
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>07:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr"/>
-      <c r="D1897" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
+      <c r="D1897" t="inlineStr"/>
       <c r="E1897" t="inlineStr"/>
-      <c r="F1897" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr">
         <is>
           <t>3</t>
@@ -52183,20 +52057,16 @@
     <row r="1898">
       <c r="A1898" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1898" t="inlineStr"/>
-      <c r="D1898" t="inlineStr">
-        <is>
-          <t>4.435%</t>
-        </is>
-      </c>
+      <c r="D1898" t="inlineStr"/>
       <c r="E1898" t="inlineStr"/>
       <c r="F1898" t="inlineStr"/>
       <c r="G1898" t="inlineStr">
@@ -52206,18 +52076,18 @@
       </c>
     </row>
     <row r="1899">
-      <c r="A1899" t="inlineStr"/>
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexAPR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr"/>
-      <c r="D1899" t="inlineStr">
-        <is>
-          <t>57.1</t>
-        </is>
-      </c>
+      <c r="D1899" t="inlineStr"/>
       <c r="E1899" t="inlineStr"/>
       <c r="F1899" t="inlineStr"/>
       <c r="G1899" t="inlineStr">
@@ -52229,108 +52099,96 @@
     <row r="1900">
       <c r="A1900" t="inlineStr">
         <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateMAY/08</t>
+        </is>
+      </c>
       <c r="C1900" t="inlineStr"/>
       <c r="D1900" t="inlineStr"/>
       <c r="E1900" t="inlineStr"/>
       <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr"/>
+      <c r="G1900" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1901">
       <c r="A1901" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
+          <t>30-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1901" t="inlineStr"/>
-      <c r="D1901" t="inlineStr">
-        <is>
-          <t>3.76M</t>
-        </is>
-      </c>
+      <c r="D1901" t="inlineStr"/>
       <c r="E1901" t="inlineStr"/>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1902">
       <c r="A1902" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1902" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1902" t="inlineStr"/>
       <c r="D1902" t="inlineStr">
         <is>
-          <t>6.89%</t>
+          <t>4.813%</t>
         </is>
       </c>
       <c r="E1902" t="inlineStr"/>
       <c r="F1902" t="inlineStr"/>
       <c r="G1902" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1903">
       <c r="A1903" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1903" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
-        </is>
-      </c>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr"/>
       <c r="C1903" t="inlineStr"/>
-      <c r="D1903" t="inlineStr">
-        <is>
-          <t>-4.2%</t>
-        </is>
-      </c>
+      <c r="D1903" t="inlineStr"/>
       <c r="E1903" t="inlineStr"/>
       <c r="F1903" t="inlineStr"/>
-      <c r="G1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1903" t="inlineStr"/>
     </row>
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>223.7</t>
-        </is>
-      </c>
+      <c r="D1904" t="inlineStr"/>
       <c r="E1904" t="inlineStr"/>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr">
@@ -52342,20 +52200,16 @@
     <row r="1905">
       <c r="A1905" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr">
-        <is>
-          <t>649.0</t>
-        </is>
-      </c>
+      <c r="D1905" t="inlineStr"/>
       <c r="E1905" t="inlineStr"/>
       <c r="F1905" t="inlineStr"/>
       <c r="G1905" t="inlineStr">
@@ -52367,20 +52221,16 @@
     <row r="1906">
       <c r="A1906" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/02</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr">
-        <is>
-          <t>146.6</t>
-        </is>
-      </c>
+      <c r="D1906" t="inlineStr"/>
       <c r="E1906" t="inlineStr"/>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr">
@@ -52392,784 +52242,28 @@
     <row r="1907">
       <c r="A1907" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Saturday May 10 2025</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr"/>
       <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr">
-        <is>
-          <t>-2.696M</t>
-        </is>
-      </c>
+      <c r="D1907" t="inlineStr"/>
       <c r="E1907" t="inlineStr"/>
       <c r="F1907" t="inlineStr"/>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1907" t="inlineStr"/>
     </row>
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr"/>
       <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr">
-        <is>
-          <t>-4.002M</t>
-        </is>
-      </c>
+      <c r="D1908" t="inlineStr"/>
       <c r="E1908" t="inlineStr"/>
       <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1909" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1909" t="inlineStr"/>
-      <c r="D1909" t="inlineStr">
-        <is>
-          <t>-0.663M</t>
-        </is>
-      </c>
-      <c r="E1909" t="inlineStr"/>
-      <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1910" t="inlineStr"/>
-      <c r="D1910" t="inlineStr">
-        <is>
-          <t>0.682M</t>
-        </is>
-      </c>
-      <c r="E1910" t="inlineStr"/>
-      <c r="F1910" t="inlineStr"/>
-      <c r="G1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1911" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1911" t="inlineStr"/>
-      <c r="D1911" t="inlineStr">
-        <is>
-          <t>-0.017M</t>
-        </is>
-      </c>
-      <c r="E1911" t="inlineStr"/>
-      <c r="F1911" t="inlineStr"/>
-      <c r="G1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1912" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1912" t="inlineStr"/>
-      <c r="D1912" t="inlineStr">
-        <is>
-          <t>0.937M</t>
-        </is>
-      </c>
-      <c r="E1912" t="inlineStr"/>
-      <c r="F1912" t="inlineStr"/>
-      <c r="G1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1913" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1913" t="inlineStr"/>
-      <c r="D1913" t="inlineStr">
-        <is>
-          <t>-0.616M</t>
-        </is>
-      </c>
-      <c r="E1913" t="inlineStr"/>
-      <c r="F1913" t="inlineStr"/>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1914" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1914" t="inlineStr"/>
-      <c r="D1914" t="inlineStr">
-        <is>
-          <t>0.252M</t>
-        </is>
-      </c>
-      <c r="E1914" t="inlineStr"/>
-      <c r="F1914" t="inlineStr"/>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1915" t="inlineStr"/>
-      <c r="D1915" t="inlineStr">
-        <is>
-          <t>0.189M</t>
-        </is>
-      </c>
-      <c r="E1915" t="inlineStr"/>
-      <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E1916" t="inlineStr"/>
-      <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1917" t="inlineStr"/>
-      <c r="D1917" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1917" t="inlineStr"/>
-      <c r="F1917" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="inlineStr"/>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1918" t="inlineStr"/>
-      <c r="D1918" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1918" t="inlineStr"/>
-      <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="inlineStr"/>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1919" t="inlineStr"/>
-      <c r="D1919" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1919" t="inlineStr"/>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1920" t="inlineStr"/>
-      <c r="C1920" t="inlineStr"/>
-      <c r="D1920" t="inlineStr"/>
-      <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr"/>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1921" t="inlineStr"/>
-      <c r="D1921" t="inlineStr"/>
-      <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeMAR</t>
-        </is>
-      </c>
-      <c r="C1922" t="inlineStr"/>
-      <c r="D1922" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1922" t="inlineStr"/>
-      <c r="F1922" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr"/>
-      <c r="E1923" t="inlineStr"/>
-      <c r="F1923" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1924" t="inlineStr"/>
-      <c r="D1924" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1924" t="inlineStr"/>
-      <c r="F1924" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr"/>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr"/>
-      <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>1850.0K</t>
-        </is>
-      </c>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
-        </is>
-      </c>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr"/>
-      <c r="E1927" t="inlineStr"/>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1928" t="inlineStr"/>
-      <c r="D1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr"/>
-      <c r="D1929" t="inlineStr"/>
-      <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr"/>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1930" t="inlineStr"/>
-      <c r="D1930" t="inlineStr"/>
-      <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr"/>
-      <c r="D1931" t="inlineStr"/>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1932" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr"/>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1933">
-      <c r="A1933" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1933" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1933" t="inlineStr"/>
-      <c r="D1933" t="inlineStr"/>
-      <c r="E1933" t="inlineStr"/>
-      <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1934">
-      <c r="A1934" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1934" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1934" t="inlineStr"/>
-      <c r="D1934" t="inlineStr">
-        <is>
-          <t>4.813%</t>
-        </is>
-      </c>
-      <c r="E1934" t="inlineStr"/>
-      <c r="F1934" t="inlineStr"/>
-      <c r="G1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1935">
-      <c r="A1935" t="inlineStr">
-        <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1935" t="inlineStr"/>
-      <c r="C1935" t="inlineStr"/>
-      <c r="D1935" t="inlineStr"/>
-      <c r="E1935" t="inlineStr"/>
-      <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr"/>
-    </row>
-    <row r="1936">
-      <c r="A1936" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1936" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1936" t="inlineStr"/>
-      <c r="D1936" t="inlineStr"/>
-      <c r="E1936" t="inlineStr"/>
-      <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1937">
-      <c r="A1937" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1937" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1937" t="inlineStr"/>
-      <c r="D1937" t="inlineStr"/>
-      <c r="E1937" t="inlineStr"/>
-      <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1938">
-      <c r="A1938" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1938" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1938" t="inlineStr"/>
-      <c r="D1938" t="inlineStr"/>
-      <c r="E1938" t="inlineStr"/>
-      <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1939">
-      <c r="A1939" t="inlineStr">
-        <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1939" t="inlineStr"/>
-      <c r="C1939" t="inlineStr"/>
-      <c r="D1939" t="inlineStr"/>
-      <c r="E1939" t="inlineStr"/>
-      <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr"/>
-    </row>
-    <row r="1940">
-      <c r="A1940" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1940" t="inlineStr"/>
-      <c r="C1940" t="inlineStr"/>
-      <c r="D1940" t="inlineStr"/>
-      <c r="E1940" t="inlineStr"/>
-      <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr"/>
+      <c r="G1908" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1940"/>
+  <dimension ref="A1:G1908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50805,10 +50805,8 @@
           <t>290K</t>
         </is>
       </c>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -50842,10 +50840,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1850">
@@ -50879,10 +50875,8 @@
           <t>1844.0K</t>
         </is>
       </c>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1851">
@@ -50912,10 +50906,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -50949,10 +50941,8 @@
           <t>50.7</t>
         </is>
       </c>
-      <c r="G1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -50986,10 +50976,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="G1853" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1853" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1854">
@@ -51019,10 +51007,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="G1854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1855">
@@ -51056,10 +51042,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -51089,10 +51073,8 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="G1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -51126,10 +51108,8 @@
           <t>70</t>
         </is>
       </c>
-      <c r="G1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -51155,10 +51135,8 @@
         </is>
       </c>
       <c r="F1858" t="inlineStr"/>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -51180,10 +51158,8 @@
       </c>
       <c r="E1859" t="inlineStr"/>
       <c r="F1859" t="inlineStr"/>
-      <c r="G1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -51205,10 +51181,8 @@
       </c>
       <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr"/>
-      <c r="G1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -51230,10 +51204,8 @@
       </c>
       <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr"/>
-      <c r="G1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -51255,40 +51227,54 @@
       </c>
       <c r="E1862" t="inlineStr"/>
       <c r="F1862" t="inlineStr"/>
-      <c r="G1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
-        </is>
-      </c>
-      <c r="B1863" t="inlineStr"/>
+          <t>07:40 PM</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+        </is>
+      </c>
       <c r="C1863" t="inlineStr"/>
-      <c r="D1863" t="inlineStr"/>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="E1863" t="inlineStr"/>
-      <c r="F1863" t="inlineStr"/>
-      <c r="G1863" t="inlineStr"/>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="G1863" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1864">
       <c r="A1864" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/30</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C1864" t="inlineStr"/>
       <c r="D1864" t="inlineStr">
         <is>
-          <t>$6.73T</t>
+          <t>4.435%</t>
         </is>
       </c>
       <c r="E1864" t="inlineStr"/>
@@ -51300,98 +51286,58 @@
       </c>
     </row>
     <row r="1865">
-      <c r="A1865" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1865" t="inlineStr"/>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>LMI Logistics Managers IndexAPR</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr"/>
       <c r="D1865" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1865" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1865" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>57.1</t>
+        </is>
+      </c>
+      <c r="E1865" t="inlineStr"/>
+      <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1866" t="inlineStr">
-        <is>
-          <t>Unemployment RateAPR</t>
-        </is>
-      </c>
+          <t>Wednesday May 07 2025</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr"/>
       <c r="C1866" t="inlineStr"/>
-      <c r="D1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1866" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1866" t="inlineStr"/>
+      <c r="E1866" t="inlineStr"/>
+      <c r="F1866" t="inlineStr"/>
+      <c r="G1866" t="inlineStr"/>
     </row>
     <row r="1867">
       <c r="A1867" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1867" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>API Crude Oil Stock ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1867" t="inlineStr"/>
       <c r="D1867" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1867" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1867" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>3.76M</t>
+        </is>
+      </c>
+      <c r="E1867" t="inlineStr"/>
+      <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr">
         <is>
           <t>2</t>
@@ -51401,30 +51347,22 @@
     <row r="1868">
       <c r="A1868" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1868" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYAPR</t>
+          <t>MBA 30-Year Mortgage RateMAY/02</t>
         </is>
       </c>
       <c r="C1868" t="inlineStr"/>
       <c r="D1868" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1868" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1868" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr"/>
+      <c r="F1868" t="inlineStr"/>
       <c r="G1868" t="inlineStr">
         <is>
           <t>2</t>
@@ -51434,59 +51372,47 @@
     <row r="1869">
       <c r="A1869" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1869" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>MBA Mortgage ApplicationsMAY/02</t>
         </is>
       </c>
       <c r="C1869" t="inlineStr"/>
       <c r="D1869" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-4.2%</t>
         </is>
       </c>
       <c r="E1869" t="inlineStr"/>
-      <c r="F1869" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F1869" t="inlineStr"/>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1870">
       <c r="A1870" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1870" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>MBA Mortgage Market IndexMAY/02</t>
         </is>
       </c>
       <c r="C1870" t="inlineStr"/>
       <c r="D1870" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1870" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1870" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>223.7</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr"/>
+      <c r="F1870" t="inlineStr"/>
       <c r="G1870" t="inlineStr">
         <is>
           <t>3</t>
@@ -51496,26 +51422,22 @@
     <row r="1871">
       <c r="A1871" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1871" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/02</t>
         </is>
       </c>
       <c r="C1871" t="inlineStr"/>
       <c r="D1871" t="inlineStr">
         <is>
-          <t>19K</t>
+          <t>649.0</t>
         </is>
       </c>
       <c r="E1871" t="inlineStr"/>
-      <c r="F1871" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="F1871" t="inlineStr"/>
       <c r="G1871" t="inlineStr">
         <is>
           <t>3</t>
@@ -51525,30 +51447,22 @@
     <row r="1872">
       <c r="A1872" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1872" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>MBA Purchase IndexMAY/02</t>
         </is>
       </c>
       <c r="C1872" t="inlineStr"/>
       <c r="D1872" t="inlineStr">
         <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="F1872" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>146.6</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr"/>
+      <c r="F1872" t="inlineStr"/>
       <c r="G1872" t="inlineStr">
         <is>
           <t>3</t>
@@ -51558,121 +51472,97 @@
     <row r="1873">
       <c r="A1873" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1873" t="inlineStr"/>
       <c r="D1873" t="inlineStr">
         <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr">
-        <is>
-          <t>124K</t>
-        </is>
-      </c>
-      <c r="F1873" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
+          <t>-2.696M</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr"/>
+      <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1874">
       <c r="A1874" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1874" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>EIA Gasoline Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1874" t="inlineStr"/>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>-4.002M</t>
         </is>
       </c>
       <c r="E1874" t="inlineStr"/>
-      <c r="F1874" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
+      <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1875">
       <c r="A1875" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1875" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
+          <t>EIA Crude Oil Imports ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1875" t="inlineStr"/>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1875" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1875" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>-0.663M</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr"/>
+      <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1876" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1876" t="inlineStr"/>
       <c r="D1876" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.682M</t>
         </is>
       </c>
       <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr">
         <is>
           <t>3</t>
@@ -51682,18 +51572,18 @@
     <row r="1877">
       <c r="A1877" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1877" t="inlineStr"/>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>-0.017M</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr"/>
@@ -51707,18 +51597,18 @@
     <row r="1878">
       <c r="A1878" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1878" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1878" t="inlineStr"/>
       <c r="D1878" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>0.937M</t>
         </is>
       </c>
       <c r="E1878" t="inlineStr"/>
@@ -51730,23 +51620,23 @@
       </c>
     </row>
     <row r="1879">
-      <c r="A1879" t="inlineStr"/>
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1879" t="inlineStr"/>
       <c r="D1879" t="inlineStr">
         <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
+          <t>-0.616M</t>
+        </is>
+      </c>
+      <c r="E1879" t="inlineStr"/>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr">
         <is>
@@ -51757,56 +51647,72 @@
     <row r="1880">
       <c r="A1880" t="inlineStr">
         <is>
-          <t>Saturday May 03 2025</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1880" t="inlineStr"/>
-      <c r="D1880" t="inlineStr"/>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>0.252M</t>
+        </is>
+      </c>
       <c r="E1880" t="inlineStr"/>
       <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr"/>
+      <c r="G1880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1881">
       <c r="A1881" t="inlineStr">
         <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr"/>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>0.189M</t>
+        </is>
+      </c>
       <c r="E1881" t="inlineStr"/>
       <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr"/>
+      <c r="G1881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1882">
       <c r="A1882" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1882" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1882" t="inlineStr"/>
       <c r="D1882" t="inlineStr">
         <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1882" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1882" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>4.190%</t>
+        </is>
+      </c>
+      <c r="E1882" t="inlineStr"/>
+      <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr">
         <is>
           <t>3</t>
@@ -51816,63 +51722,47 @@
     <row r="1883">
       <c r="A1883" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1883" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C1883" t="inlineStr"/>
       <c r="D1883" t="inlineStr">
         <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr"/>
       <c r="F1883" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1884">
-      <c r="A1884" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1884" t="inlineStr"/>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>Used Car Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1884" t="inlineStr"/>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="E1884" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="F1884" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="E1884" t="inlineStr"/>
+      <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr">
         <is>
           <t>1</t>
@@ -51880,113 +51770,81 @@
       </c>
     </row>
     <row r="1885">
-      <c r="A1885" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1885" t="inlineStr"/>
       <c r="B1885" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityAPR</t>
+          <t>Used Car Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1885" t="inlineStr"/>
       <c r="D1885" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E1885" t="inlineStr"/>
-      <c r="F1885" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+      <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1886">
       <c r="A1886" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1886" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr"/>
       <c r="C1886" t="inlineStr"/>
-      <c r="D1886" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="D1886" t="inlineStr"/>
       <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
-      <c r="G1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1886" t="inlineStr"/>
+      <c r="G1886" t="inlineStr"/>
     </row>
     <row r="1887">
       <c r="A1887" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersAPR</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr"/>
-      <c r="D1887" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="D1887" t="inlineStr"/>
       <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>49.2</t>
-        </is>
-      </c>
+      <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1888">
       <c r="A1888" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1888" t="inlineStr">
         <is>
-          <t>ISM Services PricesAPR</t>
+          <t>Consumer Credit ChangeMAR</t>
         </is>
       </c>
       <c r="C1888" t="inlineStr"/>
       <c r="D1888" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>$-0.81B</t>
         </is>
       </c>
       <c r="E1888" t="inlineStr"/>
       <c r="F1888" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>$2.0B</t>
         </is>
       </c>
       <c r="G1888" t="inlineStr">
@@ -51998,90 +51856,118 @@
     <row r="1889">
       <c r="A1889" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr"/>
       <c r="D1889" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>241K</t>
         </is>
       </c>
       <c r="E1889" t="inlineStr"/>
-      <c r="F1889" t="inlineStr"/>
+      <c r="F1889" t="inlineStr">
+        <is>
+          <t>246.0K</t>
+        </is>
+      </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1890">
       <c r="A1890" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1890" t="inlineStr"/>
       <c r="D1890" t="inlineStr">
         <is>
-          <t>4.065%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr"/>
+      <c r="F1890" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1891">
       <c r="A1891" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1891" t="inlineStr"/>
       <c r="D1891" t="inlineStr">
         <is>
-          <t>3.784%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr"/>
+      <c r="F1891" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1892">
       <c r="A1892" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsAPR/26</t>
+        </is>
+      </c>
       <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr"/>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>1916K</t>
+        </is>
+      </c>
       <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr"/>
-      <c r="G1892" t="inlineStr"/>
+      <c r="F1892" t="inlineStr">
+        <is>
+          <t>1921.0K</t>
+        </is>
+      </c>
+      <c r="G1892" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1893">
       <c r="A1893" t="inlineStr">
@@ -52091,108 +51977,104 @@
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>Balance of TradeMAR</t>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr"/>
       <c r="D1893" t="inlineStr">
         <is>
-          <t>$-122.7B</t>
-        </is>
-      </c>
-      <c r="E1893" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
+          <t>226K</t>
+        </is>
+      </c>
+      <c r="E1893" t="inlineStr"/>
       <c r="F1893" t="inlineStr">
         <is>
-          <t>$-137.1B</t>
+          <t>231.5K</t>
         </is>
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>ExportsMAR</t>
+          <t>Wholesale Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr"/>
       <c r="D1894" t="inlineStr">
         <is>
-          <t>$278.5B</t>
-        </is>
-      </c>
-      <c r="E1894" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1894" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1894" t="inlineStr">
         <is>
-          <t>$280.5B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1895" t="inlineStr">
         <is>
-          <t>ImportsMAR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr">
-        <is>
-          <t>$401.1B</t>
-        </is>
-      </c>
+      <c r="D1895" t="inlineStr"/>
       <c r="E1895" t="inlineStr"/>
-      <c r="F1895" t="inlineStr">
-        <is>
-          <t>$417.6B</t>
-        </is>
-      </c>
+      <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/03</t>
+          <t>Consumer Inflation ExpectationsAPR</t>
         </is>
       </c>
       <c r="C1896" t="inlineStr"/>
       <c r="D1896" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="E1896" t="inlineStr"/>
-      <c r="F1896" t="inlineStr"/>
+      <c r="F1896" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G1896" t="inlineStr">
         <is>
           <t>3</t>
@@ -52202,26 +52084,18 @@
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>07:40 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr"/>
-      <c r="D1897" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
+      <c r="D1897" t="inlineStr"/>
       <c r="E1897" t="inlineStr"/>
-      <c r="F1897" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr">
         <is>
           <t>3</t>
@@ -52231,20 +52105,16 @@
     <row r="1898">
       <c r="A1898" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1898" t="inlineStr"/>
-      <c r="D1898" t="inlineStr">
-        <is>
-          <t>4.435%</t>
-        </is>
-      </c>
+      <c r="D1898" t="inlineStr"/>
       <c r="E1898" t="inlineStr"/>
       <c r="F1898" t="inlineStr"/>
       <c r="G1898" t="inlineStr">
@@ -52254,18 +52124,18 @@
       </c>
     </row>
     <row r="1899">
-      <c r="A1899" t="inlineStr"/>
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexAPR</t>
+          <t>15-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr"/>
-      <c r="D1899" t="inlineStr">
-        <is>
-          <t>57.1</t>
-        </is>
-      </c>
+      <c r="D1899" t="inlineStr"/>
       <c r="E1899" t="inlineStr"/>
       <c r="F1899" t="inlineStr"/>
       <c r="G1899" t="inlineStr">
@@ -52277,83 +52147,75 @@
     <row r="1900">
       <c r="A1900" t="inlineStr">
         <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateMAY/08</t>
+        </is>
+      </c>
       <c r="C1900" t="inlineStr"/>
       <c r="D1900" t="inlineStr"/>
       <c r="E1900" t="inlineStr"/>
       <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr"/>
+      <c r="G1900" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1901">
       <c r="A1901" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1901" t="inlineStr"/>
       <c r="D1901" t="inlineStr">
         <is>
-          <t>3.76M</t>
+          <t>4.813%</t>
         </is>
       </c>
       <c r="E1901" t="inlineStr"/>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1902">
       <c r="A1902" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1902" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
-        </is>
-      </c>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr"/>
       <c r="C1902" t="inlineStr"/>
-      <c r="D1902" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
+      <c r="D1902" t="inlineStr"/>
       <c r="E1902" t="inlineStr"/>
       <c r="F1902" t="inlineStr"/>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1902" t="inlineStr"/>
     </row>
     <row r="1903">
       <c r="A1903" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1903" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1903" t="inlineStr"/>
-      <c r="D1903" t="inlineStr">
-        <is>
-          <t>-4.2%</t>
-        </is>
-      </c>
+      <c r="D1903" t="inlineStr"/>
       <c r="E1903" t="inlineStr"/>
       <c r="F1903" t="inlineStr"/>
       <c r="G1903" t="inlineStr">
@@ -52365,45 +52227,37 @@
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>223.7</t>
-        </is>
-      </c>
+      <c r="D1904" t="inlineStr"/>
       <c r="E1904" t="inlineStr"/>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1905">
       <c r="A1905" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr">
-        <is>
-          <t>649.0</t>
-        </is>
-      </c>
+      <c r="D1905" t="inlineStr"/>
       <c r="E1905" t="inlineStr"/>
       <c r="F1905" t="inlineStr"/>
       <c r="G1905" t="inlineStr">
@@ -52415,20 +52269,16 @@
     <row r="1906">
       <c r="A1906" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/02</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr">
-        <is>
-          <t>146.6</t>
-        </is>
-      </c>
+      <c r="D1906" t="inlineStr"/>
       <c r="E1906" t="inlineStr"/>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr">
@@ -52440,788 +52290,28 @@
     <row r="1907">
       <c r="A1907" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Saturday May 10 2025</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr"/>
       <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr">
-        <is>
-          <t>-2.696M</t>
-        </is>
-      </c>
+      <c r="D1907" t="inlineStr"/>
       <c r="E1907" t="inlineStr"/>
       <c r="F1907" t="inlineStr"/>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1907" t="inlineStr"/>
     </row>
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr"/>
       <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr">
-        <is>
-          <t>-4.002M</t>
-        </is>
-      </c>
+      <c r="D1908" t="inlineStr"/>
       <c r="E1908" t="inlineStr"/>
       <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1909" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1909" t="inlineStr"/>
-      <c r="D1909" t="inlineStr">
-        <is>
-          <t>-0.663M</t>
-        </is>
-      </c>
-      <c r="E1909" t="inlineStr"/>
-      <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1910" t="inlineStr"/>
-      <c r="D1910" t="inlineStr">
-        <is>
-          <t>0.682M</t>
-        </is>
-      </c>
-      <c r="E1910" t="inlineStr"/>
-      <c r="F1910" t="inlineStr"/>
-      <c r="G1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1911" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1911" t="inlineStr"/>
-      <c r="D1911" t="inlineStr">
-        <is>
-          <t>-0.017M</t>
-        </is>
-      </c>
-      <c r="E1911" t="inlineStr"/>
-      <c r="F1911" t="inlineStr"/>
-      <c r="G1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1912" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1912" t="inlineStr"/>
-      <c r="D1912" t="inlineStr">
-        <is>
-          <t>0.937M</t>
-        </is>
-      </c>
-      <c r="E1912" t="inlineStr"/>
-      <c r="F1912" t="inlineStr"/>
-      <c r="G1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1913" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1913" t="inlineStr"/>
-      <c r="D1913" t="inlineStr">
-        <is>
-          <t>-0.616M</t>
-        </is>
-      </c>
-      <c r="E1913" t="inlineStr"/>
-      <c r="F1913" t="inlineStr"/>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1914" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1914" t="inlineStr"/>
-      <c r="D1914" t="inlineStr">
-        <is>
-          <t>0.252M</t>
-        </is>
-      </c>
-      <c r="E1914" t="inlineStr"/>
-      <c r="F1914" t="inlineStr"/>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1915" t="inlineStr"/>
-      <c r="D1915" t="inlineStr">
-        <is>
-          <t>0.189M</t>
-        </is>
-      </c>
-      <c r="E1915" t="inlineStr"/>
-      <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E1916" t="inlineStr"/>
-      <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1917" t="inlineStr"/>
-      <c r="D1917" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1917" t="inlineStr"/>
-      <c r="F1917" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="inlineStr"/>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1918" t="inlineStr"/>
-      <c r="D1918" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1918" t="inlineStr"/>
-      <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="inlineStr"/>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1919" t="inlineStr"/>
-      <c r="D1919" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1919" t="inlineStr"/>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1920" t="inlineStr"/>
-      <c r="C1920" t="inlineStr"/>
-      <c r="D1920" t="inlineStr"/>
-      <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr"/>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1921" t="inlineStr"/>
-      <c r="D1921" t="inlineStr"/>
-      <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeMAR</t>
-        </is>
-      </c>
-      <c r="C1922" t="inlineStr"/>
-      <c r="D1922" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1922" t="inlineStr"/>
-      <c r="F1922" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr">
-        <is>
-          <t>241K</t>
-        </is>
-      </c>
-      <c r="E1923" t="inlineStr"/>
-      <c r="F1923" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1924" t="inlineStr"/>
-      <c r="D1924" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1924" t="inlineStr"/>
-      <c r="F1924" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr"/>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr"/>
-      <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>1850.0K</t>
-        </is>
-      </c>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
-        </is>
-      </c>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr"/>
-      <c r="E1927" t="inlineStr"/>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1928" t="inlineStr"/>
-      <c r="D1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr"/>
-      <c r="D1929" t="inlineStr"/>
-      <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr"/>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1930" t="inlineStr"/>
-      <c r="D1930" t="inlineStr"/>
-      <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr"/>
-      <c r="D1931" t="inlineStr"/>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1932" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr"/>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1933">
-      <c r="A1933" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1933" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1933" t="inlineStr"/>
-      <c r="D1933" t="inlineStr"/>
-      <c r="E1933" t="inlineStr"/>
-      <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1934">
-      <c r="A1934" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1934" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1934" t="inlineStr"/>
-      <c r="D1934" t="inlineStr">
-        <is>
-          <t>4.813%</t>
-        </is>
-      </c>
-      <c r="E1934" t="inlineStr"/>
-      <c r="F1934" t="inlineStr"/>
-      <c r="G1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1935">
-      <c r="A1935" t="inlineStr">
-        <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1935" t="inlineStr"/>
-      <c r="C1935" t="inlineStr"/>
-      <c r="D1935" t="inlineStr"/>
-      <c r="E1935" t="inlineStr"/>
-      <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr"/>
-    </row>
-    <row r="1936">
-      <c r="A1936" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1936" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1936" t="inlineStr"/>
-      <c r="D1936" t="inlineStr"/>
-      <c r="E1936" t="inlineStr"/>
-      <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1937">
-      <c r="A1937" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1937" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1937" t="inlineStr"/>
-      <c r="D1937" t="inlineStr"/>
-      <c r="E1937" t="inlineStr"/>
-      <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1938">
-      <c r="A1938" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1938" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1938" t="inlineStr"/>
-      <c r="D1938" t="inlineStr"/>
-      <c r="E1938" t="inlineStr"/>
-      <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1939">
-      <c r="A1939" t="inlineStr">
-        <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1939" t="inlineStr"/>
-      <c r="C1939" t="inlineStr"/>
-      <c r="D1939" t="inlineStr"/>
-      <c r="E1939" t="inlineStr"/>
-      <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr"/>
-    </row>
-    <row r="1940">
-      <c r="A1940" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1940" t="inlineStr"/>
-      <c r="C1940" t="inlineStr"/>
-      <c r="D1940" t="inlineStr"/>
-      <c r="E1940" t="inlineStr"/>
-      <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr"/>
+      <c r="G1908" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1942"/>
+  <dimension ref="A1:G1908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50805,10 +50805,8 @@
           <t>290K</t>
         </is>
       </c>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -50842,10 +50840,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1850">
@@ -50879,10 +50875,8 @@
           <t>1844.0K</t>
         </is>
       </c>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1851">
@@ -50912,10 +50906,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -50949,10 +50941,8 @@
           <t>50.7</t>
         </is>
       </c>
-      <c r="G1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -50986,10 +50976,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="G1853" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1853" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1854">
@@ -51019,10 +51007,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="G1854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1855">
@@ -51056,10 +51042,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -51089,10 +51073,8 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="G1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -51126,10 +51108,8 @@
           <t>70</t>
         </is>
       </c>
-      <c r="G1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -51155,10 +51135,8 @@
       </c>
       <c r="E1858" t="inlineStr"/>
       <c r="F1858" t="inlineStr"/>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -51184,10 +51162,8 @@
       </c>
       <c r="E1859" t="inlineStr"/>
       <c r="F1859" t="inlineStr"/>
-      <c r="G1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -51213,10 +51189,8 @@
       </c>
       <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr"/>
-      <c r="G1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -51242,10 +51216,8 @@
       </c>
       <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr"/>
-      <c r="G1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -51267,40 +51239,54 @@
         </is>
       </c>
       <c r="F1862" t="inlineStr"/>
-      <c r="G1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
-        </is>
-      </c>
-      <c r="B1863" t="inlineStr"/>
+          <t>07:40 PM</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+        </is>
+      </c>
       <c r="C1863" t="inlineStr"/>
-      <c r="D1863" t="inlineStr"/>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="E1863" t="inlineStr"/>
-      <c r="F1863" t="inlineStr"/>
-      <c r="G1863" t="inlineStr"/>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="G1863" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1864">
       <c r="A1864" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/30</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C1864" t="inlineStr"/>
       <c r="D1864" t="inlineStr">
         <is>
-          <t>$6.73T</t>
+          <t>4.435%</t>
         </is>
       </c>
       <c r="E1864" t="inlineStr"/>
@@ -51312,98 +51298,58 @@
       </c>
     </row>
     <row r="1865">
-      <c r="A1865" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1865" t="inlineStr"/>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>LMI Logistics Managers IndexAPR</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr"/>
       <c r="D1865" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1865" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1865" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>57.1</t>
+        </is>
+      </c>
+      <c r="E1865" t="inlineStr"/>
+      <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1866" t="inlineStr">
-        <is>
-          <t>Unemployment RateAPR</t>
-        </is>
-      </c>
+          <t>Wednesday May 07 2025</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr"/>
       <c r="C1866" t="inlineStr"/>
-      <c r="D1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1866" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1866" t="inlineStr"/>
+      <c r="E1866" t="inlineStr"/>
+      <c r="F1866" t="inlineStr"/>
+      <c r="G1866" t="inlineStr"/>
     </row>
     <row r="1867">
       <c r="A1867" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1867" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>API Crude Oil Stock ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1867" t="inlineStr"/>
       <c r="D1867" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1867" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1867" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>3.76M</t>
+        </is>
+      </c>
+      <c r="E1867" t="inlineStr"/>
+      <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr">
         <is>
           <t>2</t>
@@ -51413,30 +51359,22 @@
     <row r="1868">
       <c r="A1868" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1868" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYAPR</t>
+          <t>MBA 30-Year Mortgage RateMAY/02</t>
         </is>
       </c>
       <c r="C1868" t="inlineStr"/>
       <c r="D1868" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1868" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1868" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr"/>
+      <c r="F1868" t="inlineStr"/>
       <c r="G1868" t="inlineStr">
         <is>
           <t>2</t>
@@ -51446,59 +51384,47 @@
     <row r="1869">
       <c r="A1869" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1869" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>MBA Mortgage ApplicationsMAY/02</t>
         </is>
       </c>
       <c r="C1869" t="inlineStr"/>
       <c r="D1869" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-4.2%</t>
         </is>
       </c>
       <c r="E1869" t="inlineStr"/>
-      <c r="F1869" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F1869" t="inlineStr"/>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1870">
       <c r="A1870" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1870" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>MBA Mortgage Market IndexMAY/02</t>
         </is>
       </c>
       <c r="C1870" t="inlineStr"/>
       <c r="D1870" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1870" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1870" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>223.7</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr"/>
+      <c r="F1870" t="inlineStr"/>
       <c r="G1870" t="inlineStr">
         <is>
           <t>3</t>
@@ -51508,26 +51434,22 @@
     <row r="1871">
       <c r="A1871" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1871" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/02</t>
         </is>
       </c>
       <c r="C1871" t="inlineStr"/>
       <c r="D1871" t="inlineStr">
         <is>
-          <t>19K</t>
+          <t>649.0</t>
         </is>
       </c>
       <c r="E1871" t="inlineStr"/>
-      <c r="F1871" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="F1871" t="inlineStr"/>
       <c r="G1871" t="inlineStr">
         <is>
           <t>3</t>
@@ -51537,30 +51459,22 @@
     <row r="1872">
       <c r="A1872" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1872" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>MBA Purchase IndexMAY/02</t>
         </is>
       </c>
       <c r="C1872" t="inlineStr"/>
       <c r="D1872" t="inlineStr">
         <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="F1872" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>146.6</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr"/>
+      <c r="F1872" t="inlineStr"/>
       <c r="G1872" t="inlineStr">
         <is>
           <t>3</t>
@@ -51570,121 +51484,97 @@
     <row r="1873">
       <c r="A1873" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1873" t="inlineStr"/>
       <c r="D1873" t="inlineStr">
         <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr">
-        <is>
-          <t>124K</t>
-        </is>
-      </c>
-      <c r="F1873" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
+          <t>-2.696M</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr"/>
+      <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1874">
       <c r="A1874" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1874" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>EIA Gasoline Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1874" t="inlineStr"/>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>-4.002M</t>
         </is>
       </c>
       <c r="E1874" t="inlineStr"/>
-      <c r="F1874" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
+      <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1875">
       <c r="A1875" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1875" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
+          <t>EIA Crude Oil Imports ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1875" t="inlineStr"/>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1875" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1875" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>-0.663M</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr"/>
+      <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1876" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1876" t="inlineStr"/>
       <c r="D1876" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.682M</t>
         </is>
       </c>
       <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr">
         <is>
           <t>3</t>
@@ -51694,18 +51584,18 @@
     <row r="1877">
       <c r="A1877" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1877" t="inlineStr"/>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>-0.017M</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr"/>
@@ -51719,18 +51609,18 @@
     <row r="1878">
       <c r="A1878" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1878" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1878" t="inlineStr"/>
       <c r="D1878" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>0.937M</t>
         </is>
       </c>
       <c r="E1878" t="inlineStr"/>
@@ -51742,23 +51632,23 @@
       </c>
     </row>
     <row r="1879">
-      <c r="A1879" t="inlineStr"/>
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1879" t="inlineStr"/>
       <c r="D1879" t="inlineStr">
         <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
+          <t>-0.616M</t>
+        </is>
+      </c>
+      <c r="E1879" t="inlineStr"/>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr">
         <is>
@@ -51769,56 +51659,72 @@
     <row r="1880">
       <c r="A1880" t="inlineStr">
         <is>
-          <t>Saturday May 03 2025</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1880" t="inlineStr"/>
-      <c r="D1880" t="inlineStr"/>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>0.252M</t>
+        </is>
+      </c>
       <c r="E1880" t="inlineStr"/>
       <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr"/>
+      <c r="G1880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1881">
       <c r="A1881" t="inlineStr">
         <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr"/>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>0.189M</t>
+        </is>
+      </c>
       <c r="E1881" t="inlineStr"/>
       <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr"/>
+      <c r="G1881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1882">
       <c r="A1882" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1882" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1882" t="inlineStr"/>
       <c r="D1882" t="inlineStr">
         <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1882" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1882" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>4.190%</t>
+        </is>
+      </c>
+      <c r="E1882" t="inlineStr"/>
+      <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr">
         <is>
           <t>3</t>
@@ -51828,63 +51734,47 @@
     <row r="1883">
       <c r="A1883" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1883" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C1883" t="inlineStr"/>
       <c r="D1883" t="inlineStr">
         <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr"/>
       <c r="F1883" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1884">
-      <c r="A1884" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1884" t="inlineStr"/>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>Used Car Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1884" t="inlineStr"/>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="E1884" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="F1884" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="E1884" t="inlineStr"/>
+      <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr">
         <is>
           <t>1</t>
@@ -51892,113 +51782,81 @@
       </c>
     </row>
     <row r="1885">
-      <c r="A1885" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1885" t="inlineStr"/>
       <c r="B1885" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityAPR</t>
+          <t>Used Car Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1885" t="inlineStr"/>
       <c r="D1885" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E1885" t="inlineStr"/>
-      <c r="F1885" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+      <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1886">
       <c r="A1886" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1886" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr"/>
       <c r="C1886" t="inlineStr"/>
-      <c r="D1886" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="D1886" t="inlineStr"/>
       <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
-      <c r="G1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1886" t="inlineStr"/>
+      <c r="G1886" t="inlineStr"/>
     </row>
     <row r="1887">
       <c r="A1887" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersAPR</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr"/>
-      <c r="D1887" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="D1887" t="inlineStr"/>
       <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>49.2</t>
-        </is>
-      </c>
+      <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1888">
       <c r="A1888" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1888" t="inlineStr">
         <is>
-          <t>ISM Services PricesAPR</t>
+          <t>Consumer Credit ChangeMAR</t>
         </is>
       </c>
       <c r="C1888" t="inlineStr"/>
       <c r="D1888" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>$-0.81B</t>
         </is>
       </c>
       <c r="E1888" t="inlineStr"/>
       <c r="F1888" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>$2.0B</t>
         </is>
       </c>
       <c r="G1888" t="inlineStr">
@@ -52010,90 +51868,118 @@
     <row r="1889">
       <c r="A1889" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr"/>
       <c r="D1889" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>241K</t>
         </is>
       </c>
       <c r="E1889" t="inlineStr"/>
-      <c r="F1889" t="inlineStr"/>
+      <c r="F1889" t="inlineStr">
+        <is>
+          <t>246.0K</t>
+        </is>
+      </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1890">
       <c r="A1890" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1890" t="inlineStr"/>
       <c r="D1890" t="inlineStr">
         <is>
-          <t>4.065%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr"/>
+      <c r="F1890" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1891">
       <c r="A1891" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1891" t="inlineStr"/>
       <c r="D1891" t="inlineStr">
         <is>
-          <t>3.784%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr"/>
+      <c r="F1891" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1892">
       <c r="A1892" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsAPR/26</t>
+        </is>
+      </c>
       <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr"/>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>1916K</t>
+        </is>
+      </c>
       <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr"/>
-      <c r="G1892" t="inlineStr"/>
+      <c r="F1892" t="inlineStr">
+        <is>
+          <t>1921.0K</t>
+        </is>
+      </c>
+      <c r="G1892" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1893">
       <c r="A1893" t="inlineStr">
@@ -52103,108 +51989,104 @@
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>Balance of TradeMAR</t>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr"/>
       <c r="D1893" t="inlineStr">
         <is>
-          <t>$-122.7B</t>
-        </is>
-      </c>
-      <c r="E1893" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
+          <t>226K</t>
+        </is>
+      </c>
+      <c r="E1893" t="inlineStr"/>
       <c r="F1893" t="inlineStr">
         <is>
-          <t>$-137.1B</t>
+          <t>231.5K</t>
         </is>
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>ExportsMAR</t>
+          <t>Wholesale Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr"/>
       <c r="D1894" t="inlineStr">
         <is>
-          <t>$278.5B</t>
-        </is>
-      </c>
-      <c r="E1894" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1894" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1894" t="inlineStr">
         <is>
-          <t>$280.5B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1895" t="inlineStr">
         <is>
-          <t>ImportsMAR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr">
-        <is>
-          <t>$401.1B</t>
-        </is>
-      </c>
+      <c r="D1895" t="inlineStr"/>
       <c r="E1895" t="inlineStr"/>
-      <c r="F1895" t="inlineStr">
-        <is>
-          <t>$417.6B</t>
-        </is>
-      </c>
+      <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/03</t>
+          <t>Consumer Inflation ExpectationsAPR</t>
         </is>
       </c>
       <c r="C1896" t="inlineStr"/>
       <c r="D1896" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="E1896" t="inlineStr"/>
-      <c r="F1896" t="inlineStr"/>
+      <c r="F1896" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G1896" t="inlineStr">
         <is>
           <t>3</t>
@@ -52214,26 +52096,22 @@
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>07:40 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr"/>
       <c r="D1897" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E1897" t="inlineStr"/>
-      <c r="F1897" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr">
         <is>
           <t>3</t>
@@ -52243,18 +52121,18 @@
     <row r="1898">
       <c r="A1898" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1898" t="inlineStr"/>
       <c r="D1898" t="inlineStr">
         <is>
-          <t>4.435%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1898" t="inlineStr"/>
@@ -52266,16 +52144,20 @@
       </c>
     </row>
     <row r="1899">
-      <c r="A1899" t="inlineStr"/>
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexAPR</t>
+          <t>15-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr"/>
       <c r="D1899" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E1899" t="inlineStr"/>
@@ -52289,83 +52171,79 @@
     <row r="1900">
       <c r="A1900" t="inlineStr">
         <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateMAY/08</t>
+        </is>
+      </c>
       <c r="C1900" t="inlineStr"/>
-      <c r="D1900" t="inlineStr"/>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>6.76%</t>
+        </is>
+      </c>
       <c r="E1900" t="inlineStr"/>
       <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr"/>
+      <c r="G1900" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1901">
       <c r="A1901" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1901" t="inlineStr"/>
       <c r="D1901" t="inlineStr">
         <is>
-          <t>3.76M</t>
+          <t>4.813%</t>
         </is>
       </c>
       <c r="E1901" t="inlineStr"/>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1902">
       <c r="A1902" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1902" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
-        </is>
-      </c>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr"/>
       <c r="C1902" t="inlineStr"/>
-      <c r="D1902" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
+      <c r="D1902" t="inlineStr"/>
       <c r="E1902" t="inlineStr"/>
       <c r="F1902" t="inlineStr"/>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1902" t="inlineStr"/>
     </row>
     <row r="1903">
       <c r="A1903" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1903" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1903" t="inlineStr"/>
-      <c r="D1903" t="inlineStr">
-        <is>
-          <t>-4.2%</t>
-        </is>
-      </c>
+      <c r="D1903" t="inlineStr"/>
       <c r="E1903" t="inlineStr"/>
       <c r="F1903" t="inlineStr"/>
       <c r="G1903" t="inlineStr">
@@ -52377,45 +52255,37 @@
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>223.7</t>
-        </is>
-      </c>
+      <c r="D1904" t="inlineStr"/>
       <c r="E1904" t="inlineStr"/>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1905">
       <c r="A1905" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr">
-        <is>
-          <t>649.0</t>
-        </is>
-      </c>
+      <c r="D1905" t="inlineStr"/>
       <c r="E1905" t="inlineStr"/>
       <c r="F1905" t="inlineStr"/>
       <c r="G1905" t="inlineStr">
@@ -52427,20 +52297,16 @@
     <row r="1906">
       <c r="A1906" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/02</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr">
-        <is>
-          <t>146.6</t>
-        </is>
-      </c>
+      <c r="D1906" t="inlineStr"/>
       <c r="E1906" t="inlineStr"/>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr">
@@ -52452,862 +52318,28 @@
     <row r="1907">
       <c r="A1907" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Saturday May 10 2025</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr"/>
       <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr">
-        <is>
-          <t>-2.696M</t>
-        </is>
-      </c>
+      <c r="D1907" t="inlineStr"/>
       <c r="E1907" t="inlineStr"/>
       <c r="F1907" t="inlineStr"/>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1907" t="inlineStr"/>
     </row>
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr"/>
       <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr">
-        <is>
-          <t>-4.002M</t>
-        </is>
-      </c>
+      <c r="D1908" t="inlineStr"/>
       <c r="E1908" t="inlineStr"/>
       <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1909" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1909" t="inlineStr"/>
-      <c r="D1909" t="inlineStr">
-        <is>
-          <t>-0.663M</t>
-        </is>
-      </c>
-      <c r="E1909" t="inlineStr"/>
-      <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1910" t="inlineStr"/>
-      <c r="D1910" t="inlineStr">
-        <is>
-          <t>0.682M</t>
-        </is>
-      </c>
-      <c r="E1910" t="inlineStr"/>
-      <c r="F1910" t="inlineStr"/>
-      <c r="G1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1911" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1911" t="inlineStr"/>
-      <c r="D1911" t="inlineStr">
-        <is>
-          <t>-0.017M</t>
-        </is>
-      </c>
-      <c r="E1911" t="inlineStr"/>
-      <c r="F1911" t="inlineStr"/>
-      <c r="G1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1912" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1912" t="inlineStr"/>
-      <c r="D1912" t="inlineStr">
-        <is>
-          <t>0.937M</t>
-        </is>
-      </c>
-      <c r="E1912" t="inlineStr"/>
-      <c r="F1912" t="inlineStr"/>
-      <c r="G1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1913" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1913" t="inlineStr"/>
-      <c r="D1913" t="inlineStr">
-        <is>
-          <t>-0.616M</t>
-        </is>
-      </c>
-      <c r="E1913" t="inlineStr"/>
-      <c r="F1913" t="inlineStr"/>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1914" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1914" t="inlineStr"/>
-      <c r="D1914" t="inlineStr">
-        <is>
-          <t>0.252M</t>
-        </is>
-      </c>
-      <c r="E1914" t="inlineStr"/>
-      <c r="F1914" t="inlineStr"/>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1915" t="inlineStr"/>
-      <c r="D1915" t="inlineStr">
-        <is>
-          <t>0.189M</t>
-        </is>
-      </c>
-      <c r="E1915" t="inlineStr"/>
-      <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E1916" t="inlineStr"/>
-      <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1917" t="inlineStr"/>
-      <c r="D1917" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1917" t="inlineStr"/>
-      <c r="F1917" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="inlineStr"/>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1918" t="inlineStr"/>
-      <c r="D1918" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1918" t="inlineStr"/>
-      <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="inlineStr"/>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1919" t="inlineStr"/>
-      <c r="D1919" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1919" t="inlineStr"/>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1920" t="inlineStr"/>
-      <c r="C1920" t="inlineStr"/>
-      <c r="D1920" t="inlineStr"/>
-      <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr"/>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1921" t="inlineStr"/>
-      <c r="D1921" t="inlineStr"/>
-      <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeMAR</t>
-        </is>
-      </c>
-      <c r="C1922" t="inlineStr"/>
-      <c r="D1922" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1922" t="inlineStr"/>
-      <c r="F1922" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr">
-        <is>
-          <t>241K</t>
-        </is>
-      </c>
-      <c r="E1923" t="inlineStr"/>
-      <c r="F1923" t="inlineStr">
-        <is>
-          <t>246.0K</t>
-        </is>
-      </c>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1924" t="inlineStr"/>
-      <c r="D1924" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1924" t="inlineStr"/>
-      <c r="F1924" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr"/>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr">
-        <is>
-          <t>1916K</t>
-        </is>
-      </c>
-      <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>1921.0K</t>
-        </is>
-      </c>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
-        </is>
-      </c>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr">
-        <is>
-          <t>226K</t>
-        </is>
-      </c>
-      <c r="E1927" t="inlineStr"/>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>231.5K</t>
-        </is>
-      </c>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1928" t="inlineStr"/>
-      <c r="D1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr"/>
-      <c r="D1929" t="inlineStr"/>
-      <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr"/>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsAPR</t>
-        </is>
-      </c>
-      <c r="C1930" t="inlineStr"/>
-      <c r="D1930" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr"/>
-      <c r="D1931" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1932" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1933">
-      <c r="A1933" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1933" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1933" t="inlineStr"/>
-      <c r="D1933" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
-      <c r="E1933" t="inlineStr"/>
-      <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1934">
-      <c r="A1934" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1934" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1934" t="inlineStr"/>
-      <c r="D1934" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E1934" t="inlineStr"/>
-      <c r="F1934" t="inlineStr"/>
-      <c r="G1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1935">
-      <c r="A1935" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1935" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1935" t="inlineStr"/>
-      <c r="D1935" t="inlineStr">
-        <is>
-          <t>4.813%</t>
-        </is>
-      </c>
-      <c r="E1935" t="inlineStr"/>
-      <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1936">
-      <c r="A1936" t="inlineStr">
-        <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1936" t="inlineStr"/>
-      <c r="C1936" t="inlineStr"/>
-      <c r="D1936" t="inlineStr"/>
-      <c r="E1936" t="inlineStr"/>
-      <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr"/>
-    </row>
-    <row r="1937">
-      <c r="A1937" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1937" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1937" t="inlineStr"/>
-      <c r="D1937" t="inlineStr"/>
-      <c r="E1937" t="inlineStr"/>
-      <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1938">
-      <c r="A1938" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1938" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C1938" t="inlineStr"/>
-      <c r="D1938" t="inlineStr"/>
-      <c r="E1938" t="inlineStr"/>
-      <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1939">
-      <c r="A1939" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1939" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1939" t="inlineStr"/>
-      <c r="D1939" t="inlineStr"/>
-      <c r="E1939" t="inlineStr"/>
-      <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1940">
-      <c r="A1940" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1940" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1940" t="inlineStr"/>
-      <c r="D1940" t="inlineStr"/>
-      <c r="E1940" t="inlineStr"/>
-      <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1941">
-      <c r="A1941" t="inlineStr">
-        <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1941" t="inlineStr"/>
-      <c r="C1941" t="inlineStr"/>
-      <c r="D1941" t="inlineStr"/>
-      <c r="E1941" t="inlineStr"/>
-      <c r="F1941" t="inlineStr"/>
-      <c r="G1941" t="inlineStr"/>
-    </row>
-    <row r="1942">
-      <c r="A1942" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1942" t="inlineStr"/>
-      <c r="C1942" t="inlineStr"/>
-      <c r="D1942" t="inlineStr"/>
-      <c r="E1942" t="inlineStr"/>
-      <c r="F1942" t="inlineStr"/>
-      <c r="G1942" t="inlineStr"/>
+      <c r="G1908" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1942"/>
+  <dimension ref="A1:G1908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50805,10 +50805,8 @@
           <t>290K</t>
         </is>
       </c>
-      <c r="G1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -50842,10 +50840,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1850">
@@ -50879,10 +50875,8 @@
           <t>1844.0K</t>
         </is>
       </c>
-      <c r="G1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1851">
@@ -50912,10 +50906,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -50949,10 +50941,8 @@
           <t>50.7</t>
         </is>
       </c>
-      <c r="G1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -50986,10 +50976,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="G1853" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1853" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1854">
@@ -51019,10 +51007,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="G1854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1855">
@@ -51056,10 +51042,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -51089,10 +51073,8 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="G1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -51126,10 +51108,8 @@
           <t>70</t>
         </is>
       </c>
-      <c r="G1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -51155,10 +51135,8 @@
       </c>
       <c r="E1858" t="inlineStr"/>
       <c r="F1858" t="inlineStr"/>
-      <c r="G1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -51184,10 +51162,8 @@
       </c>
       <c r="E1859" t="inlineStr"/>
       <c r="F1859" t="inlineStr"/>
-      <c r="G1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -51213,10 +51189,8 @@
       </c>
       <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr"/>
-      <c r="G1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -51242,10 +51216,8 @@
       </c>
       <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr"/>
-      <c r="G1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -51275,40 +51247,54 @@
         </is>
       </c>
       <c r="F1862" t="inlineStr"/>
-      <c r="G1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
-        </is>
-      </c>
-      <c r="B1863" t="inlineStr"/>
+          <t>07:40 PM</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+        </is>
+      </c>
       <c r="C1863" t="inlineStr"/>
-      <c r="D1863" t="inlineStr"/>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="E1863" t="inlineStr"/>
-      <c r="F1863" t="inlineStr"/>
-      <c r="G1863" t="inlineStr"/>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="G1863" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1864">
       <c r="A1864" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/30</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C1864" t="inlineStr"/>
       <c r="D1864" t="inlineStr">
         <is>
-          <t>$6.73T</t>
+          <t>4.435%</t>
         </is>
       </c>
       <c r="E1864" t="inlineStr"/>
@@ -51320,98 +51306,58 @@
       </c>
     </row>
     <row r="1865">
-      <c r="A1865" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1865" t="inlineStr"/>
       <c r="B1865" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>LMI Logistics Managers IndexAPR</t>
         </is>
       </c>
       <c r="C1865" t="inlineStr"/>
       <c r="D1865" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1865" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1865" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+          <t>57.1</t>
+        </is>
+      </c>
+      <c r="E1865" t="inlineStr"/>
+      <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1866" t="inlineStr">
-        <is>
-          <t>Unemployment RateAPR</t>
-        </is>
-      </c>
+          <t>Wednesday May 07 2025</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr"/>
       <c r="C1866" t="inlineStr"/>
-      <c r="D1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1866" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1866" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1866" t="inlineStr"/>
+      <c r="E1866" t="inlineStr"/>
+      <c r="F1866" t="inlineStr"/>
+      <c r="G1866" t="inlineStr"/>
     </row>
     <row r="1867">
       <c r="A1867" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1867" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>API Crude Oil Stock ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1867" t="inlineStr"/>
       <c r="D1867" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1867" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1867" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>3.76M</t>
+        </is>
+      </c>
+      <c r="E1867" t="inlineStr"/>
+      <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr">
         <is>
           <t>2</t>
@@ -51421,30 +51367,22 @@
     <row r="1868">
       <c r="A1868" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1868" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYAPR</t>
+          <t>MBA 30-Year Mortgage RateMAY/02</t>
         </is>
       </c>
       <c r="C1868" t="inlineStr"/>
       <c r="D1868" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1868" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1868" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E1868" t="inlineStr"/>
+      <c r="F1868" t="inlineStr"/>
       <c r="G1868" t="inlineStr">
         <is>
           <t>2</t>
@@ -51454,59 +51392,47 @@
     <row r="1869">
       <c r="A1869" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1869" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>MBA Mortgage ApplicationsMAY/02</t>
         </is>
       </c>
       <c r="C1869" t="inlineStr"/>
       <c r="D1869" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-4.2%</t>
         </is>
       </c>
       <c r="E1869" t="inlineStr"/>
-      <c r="F1869" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F1869" t="inlineStr"/>
       <c r="G1869" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1870">
       <c r="A1870" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1870" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>MBA Mortgage Market IndexMAY/02</t>
         </is>
       </c>
       <c r="C1870" t="inlineStr"/>
       <c r="D1870" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1870" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1870" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>223.7</t>
+        </is>
+      </c>
+      <c r="E1870" t="inlineStr"/>
+      <c r="F1870" t="inlineStr"/>
       <c r="G1870" t="inlineStr">
         <is>
           <t>3</t>
@@ -51516,26 +51442,22 @@
     <row r="1871">
       <c r="A1871" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1871" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/02</t>
         </is>
       </c>
       <c r="C1871" t="inlineStr"/>
       <c r="D1871" t="inlineStr">
         <is>
-          <t>19K</t>
+          <t>649.0</t>
         </is>
       </c>
       <c r="E1871" t="inlineStr"/>
-      <c r="F1871" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="F1871" t="inlineStr"/>
       <c r="G1871" t="inlineStr">
         <is>
           <t>3</t>
@@ -51545,30 +51467,22 @@
     <row r="1872">
       <c r="A1872" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1872" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>MBA Purchase IndexMAY/02</t>
         </is>
       </c>
       <c r="C1872" t="inlineStr"/>
       <c r="D1872" t="inlineStr">
         <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1872" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="F1872" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>146.6</t>
+        </is>
+      </c>
+      <c r="E1872" t="inlineStr"/>
+      <c r="F1872" t="inlineStr"/>
       <c r="G1872" t="inlineStr">
         <is>
           <t>3</t>
@@ -51578,121 +51492,97 @@
     <row r="1873">
       <c r="A1873" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1873" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1873" t="inlineStr"/>
       <c r="D1873" t="inlineStr">
         <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1873" t="inlineStr">
-        <is>
-          <t>124K</t>
-        </is>
-      </c>
-      <c r="F1873" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
+          <t>-2.696M</t>
+        </is>
+      </c>
+      <c r="E1873" t="inlineStr"/>
+      <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1874">
       <c r="A1874" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1874" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>EIA Gasoline Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1874" t="inlineStr"/>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>-4.002M</t>
         </is>
       </c>
       <c r="E1874" t="inlineStr"/>
-      <c r="F1874" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
+      <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1875">
       <c r="A1875" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1875" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
+          <t>EIA Crude Oil Imports ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1875" t="inlineStr"/>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1875" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1875" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>-0.663M</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr"/>
+      <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1876" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1876" t="inlineStr"/>
       <c r="D1876" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.682M</t>
         </is>
       </c>
       <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr">
         <is>
           <t>3</t>
@@ -51702,18 +51592,18 @@
     <row r="1877">
       <c r="A1877" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1877" t="inlineStr"/>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>-0.017M</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr"/>
@@ -51727,18 +51617,18 @@
     <row r="1878">
       <c r="A1878" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1878" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
+          <t>EIA Distillate Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1878" t="inlineStr"/>
       <c r="D1878" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>0.937M</t>
         </is>
       </c>
       <c r="E1878" t="inlineStr"/>
@@ -51750,23 +51640,23 @@
       </c>
     </row>
     <row r="1879">
-      <c r="A1879" t="inlineStr"/>
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesAPR</t>
+          <t>EIA Gasoline Production ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1879" t="inlineStr"/>
       <c r="D1879" t="inlineStr">
         <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1879" t="inlineStr">
-        <is>
-          <t>15.7M</t>
-        </is>
-      </c>
+          <t>-0.616M</t>
+        </is>
+      </c>
+      <c r="E1879" t="inlineStr"/>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr">
         <is>
@@ -51777,56 +51667,72 @@
     <row r="1880">
       <c r="A1880" t="inlineStr">
         <is>
-          <t>Saturday May 03 2025</t>
-        </is>
-      </c>
-      <c r="B1880" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1880" t="inlineStr"/>
-      <c r="D1880" t="inlineStr"/>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>0.252M</t>
+        </is>
+      </c>
       <c r="E1880" t="inlineStr"/>
       <c r="F1880" t="inlineStr"/>
-      <c r="G1880" t="inlineStr"/>
+      <c r="G1880" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1881">
       <c r="A1881" t="inlineStr">
         <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1881" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
+        </is>
+      </c>
       <c r="C1881" t="inlineStr"/>
-      <c r="D1881" t="inlineStr"/>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>0.189M</t>
+        </is>
+      </c>
       <c r="E1881" t="inlineStr"/>
       <c r="F1881" t="inlineStr"/>
-      <c r="G1881" t="inlineStr"/>
+      <c r="G1881" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1882">
       <c r="A1882" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1882" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalAPR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1882" t="inlineStr"/>
       <c r="D1882" t="inlineStr">
         <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="E1882" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F1882" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>4.190%</t>
+        </is>
+      </c>
+      <c r="E1882" t="inlineStr"/>
+      <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr">
         <is>
           <t>3</t>
@@ -51836,63 +51742,47 @@
     <row r="1883">
       <c r="A1883" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1883" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalAPR</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C1883" t="inlineStr"/>
       <c r="D1883" t="inlineStr">
         <is>
-          <t>54.4</t>
-        </is>
-      </c>
-      <c r="E1883" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E1883" t="inlineStr"/>
       <c r="F1883" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G1883" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1884">
-      <c r="A1884" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1884" t="inlineStr"/>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>ISM Services PMIAPR</t>
+          <t>Used Car Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1884" t="inlineStr"/>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="E1884" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="F1884" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="E1884" t="inlineStr"/>
+      <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr">
         <is>
           <t>1</t>
@@ -51900,113 +51790,81 @@
       </c>
     </row>
     <row r="1885">
-      <c r="A1885" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A1885" t="inlineStr"/>
       <c r="B1885" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityAPR</t>
+          <t>Used Car Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1885" t="inlineStr"/>
       <c r="D1885" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E1885" t="inlineStr"/>
-      <c r="F1885" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+      <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1886">
       <c r="A1886" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1886" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 08 2025</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr"/>
       <c r="C1886" t="inlineStr"/>
-      <c r="D1886" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="D1886" t="inlineStr"/>
       <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
-      <c r="G1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1886" t="inlineStr"/>
+      <c r="G1886" t="inlineStr"/>
     </row>
     <row r="1887">
       <c r="A1887" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1887" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersAPR</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1887" t="inlineStr"/>
-      <c r="D1887" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="D1887" t="inlineStr"/>
       <c r="E1887" t="inlineStr"/>
-      <c r="F1887" t="inlineStr">
-        <is>
-          <t>49.2</t>
-        </is>
-      </c>
+      <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1888">
       <c r="A1888" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1888" t="inlineStr">
         <is>
-          <t>ISM Services PricesAPR</t>
+          <t>Consumer Credit ChangeMAR</t>
         </is>
       </c>
       <c r="C1888" t="inlineStr"/>
       <c r="D1888" t="inlineStr">
         <is>
-          <t>60.9</t>
+          <t>$-0.81B</t>
         </is>
       </c>
       <c r="E1888" t="inlineStr"/>
       <c r="F1888" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>$2.0B</t>
         </is>
       </c>
       <c r="G1888" t="inlineStr">
@@ -52018,90 +51876,118 @@
     <row r="1889">
       <c r="A1889" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Initial Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr"/>
       <c r="D1889" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>241K</t>
         </is>
       </c>
       <c r="E1889" t="inlineStr"/>
-      <c r="F1889" t="inlineStr"/>
+      <c r="F1889" t="inlineStr">
+        <is>
+          <t>246.0K</t>
+        </is>
+      </c>
       <c r="G1889" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1890">
       <c r="A1890" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Nonfarm Productivity QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1890" t="inlineStr"/>
       <c r="D1890" t="inlineStr">
         <is>
-          <t>4.065%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E1890" t="inlineStr"/>
-      <c r="F1890" t="inlineStr"/>
+      <c r="F1890" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1890" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1891">
       <c r="A1891" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Unit Labour Costs QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C1891" t="inlineStr"/>
       <c r="D1891" t="inlineStr">
         <is>
-          <t>3.784%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E1891" t="inlineStr"/>
-      <c r="F1891" t="inlineStr"/>
+      <c r="F1891" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1892">
       <c r="A1892" t="inlineStr">
         <is>
-          <t>Tuesday May 06 2025</t>
-        </is>
-      </c>
-      <c r="B1892" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsAPR/26</t>
+        </is>
+      </c>
       <c r="C1892" t="inlineStr"/>
-      <c r="D1892" t="inlineStr"/>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>1916K</t>
+        </is>
+      </c>
       <c r="E1892" t="inlineStr"/>
-      <c r="F1892" t="inlineStr"/>
-      <c r="G1892" t="inlineStr"/>
+      <c r="F1892" t="inlineStr">
+        <is>
+          <t>1921.0K</t>
+        </is>
+      </c>
+      <c r="G1892" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1893">
       <c r="A1893" t="inlineStr">
@@ -52111,108 +51997,104 @@
       </c>
       <c r="B1893" t="inlineStr">
         <is>
-          <t>Balance of TradeMAR</t>
+          <t>Jobless Claims 4-week AverageMAY/03</t>
         </is>
       </c>
       <c r="C1893" t="inlineStr"/>
       <c r="D1893" t="inlineStr">
         <is>
-          <t>$-122.7B</t>
-        </is>
-      </c>
-      <c r="E1893" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
+          <t>226K</t>
+        </is>
+      </c>
+      <c r="E1893" t="inlineStr"/>
       <c r="F1893" t="inlineStr">
         <is>
-          <t>$-137.1B</t>
+          <t>231.5K</t>
         </is>
       </c>
       <c r="G1893" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1894" t="inlineStr">
         <is>
-          <t>ExportsMAR</t>
+          <t>Wholesale Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1894" t="inlineStr"/>
       <c r="D1894" t="inlineStr">
         <is>
-          <t>$278.5B</t>
-        </is>
-      </c>
-      <c r="E1894" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1894" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F1894" t="inlineStr">
         <is>
-          <t>$280.5B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G1894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1895" t="inlineStr">
         <is>
-          <t>ImportsMAR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
         </is>
       </c>
       <c r="C1895" t="inlineStr"/>
-      <c r="D1895" t="inlineStr">
-        <is>
-          <t>$401.1B</t>
-        </is>
-      </c>
+      <c r="D1895" t="inlineStr"/>
       <c r="E1895" t="inlineStr"/>
-      <c r="F1895" t="inlineStr">
-        <is>
-          <t>$417.6B</t>
-        </is>
-      </c>
+      <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1896">
       <c r="A1896" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/03</t>
+          <t>Consumer Inflation ExpectationsAPR</t>
         </is>
       </c>
       <c r="C1896" t="inlineStr"/>
       <c r="D1896" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="E1896" t="inlineStr"/>
-      <c r="F1896" t="inlineStr"/>
+      <c r="F1896" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="G1896" t="inlineStr">
         <is>
           <t>3</t>
@@ -52222,26 +52104,22 @@
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>07:40 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexMAY</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr"/>
       <c r="D1897" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E1897" t="inlineStr"/>
-      <c r="F1897" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr">
         <is>
           <t>3</t>
@@ -52251,18 +52129,18 @@
     <row r="1898">
       <c r="A1898" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1898" t="inlineStr"/>
       <c r="D1898" t="inlineStr">
         <is>
-          <t>4.435%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1898" t="inlineStr"/>
@@ -52274,16 +52152,20 @@
       </c>
     </row>
     <row r="1899">
-      <c r="A1899" t="inlineStr"/>
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B1899" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexAPR</t>
+          <t>15-Year Mortgage RateMAY/08</t>
         </is>
       </c>
       <c r="C1899" t="inlineStr"/>
       <c r="D1899" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E1899" t="inlineStr"/>
@@ -52297,81 +52179,81 @@
     <row r="1900">
       <c r="A1900" t="inlineStr">
         <is>
-          <t>Wednesday May 07 2025</t>
-        </is>
-      </c>
-      <c r="B1900" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateMAY/08</t>
+        </is>
+      </c>
       <c r="C1900" t="inlineStr"/>
-      <c r="D1900" t="inlineStr"/>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>6.76%</t>
+        </is>
+      </c>
       <c r="E1900" t="inlineStr"/>
       <c r="F1900" t="inlineStr"/>
-      <c r="G1900" t="inlineStr"/>
+      <c r="G1900" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1901">
       <c r="A1901" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/02</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1901" t="inlineStr"/>
       <c r="D1901" t="inlineStr">
         <is>
-          <t>3.76M</t>
+          <t>4.813%</t>
         </is>
       </c>
       <c r="E1901" t="inlineStr"/>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1902">
       <c r="A1902" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1902" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/02</t>
-        </is>
-      </c>
+          <t>Friday May 09 2025</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr"/>
       <c r="C1902" t="inlineStr"/>
-      <c r="D1902" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
+      <c r="D1902" t="inlineStr"/>
       <c r="E1902" t="inlineStr"/>
       <c r="F1902" t="inlineStr"/>
-      <c r="G1902" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1902" t="inlineStr"/>
     </row>
     <row r="1903">
       <c r="A1903" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1903" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/02</t>
+          <t>Fed Balance SheetMAY/07</t>
         </is>
       </c>
       <c r="C1903" t="inlineStr"/>
       <c r="D1903" t="inlineStr">
         <is>
-          <t>-4.2%</t>
+          <t>$6.71T</t>
         </is>
       </c>
       <c r="E1903" t="inlineStr"/>
@@ -52385,45 +52267,37 @@
     <row r="1904">
       <c r="A1904" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/02</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C1904" t="inlineStr"/>
-      <c r="D1904" t="inlineStr">
-        <is>
-          <t>223.7</t>
-        </is>
-      </c>
+      <c r="D1904" t="inlineStr"/>
       <c r="E1904" t="inlineStr"/>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1905">
       <c r="A1905" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/02</t>
+          <t>Baker Hughes Oil Rig CountMAY/09</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr"/>
-      <c r="D1905" t="inlineStr">
-        <is>
-          <t>649.0</t>
-        </is>
-      </c>
+      <c r="D1905" t="inlineStr"/>
       <c r="E1905" t="inlineStr"/>
       <c r="F1905" t="inlineStr"/>
       <c r="G1905" t="inlineStr">
@@ -52435,20 +52309,16 @@
     <row r="1906">
       <c r="A1906" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/02</t>
+          <t>Baker Hughes Total Rigs CountMAY/09</t>
         </is>
       </c>
       <c r="C1906" t="inlineStr"/>
-      <c r="D1906" t="inlineStr">
-        <is>
-          <t>146.6</t>
-        </is>
-      </c>
+      <c r="D1906" t="inlineStr"/>
       <c r="E1906" t="inlineStr"/>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr">
@@ -52460,862 +52330,28 @@
     <row r="1907">
       <c r="A1907" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1907" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Saturday May 10 2025</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr"/>
       <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr">
-        <is>
-          <t>-2.696M</t>
-        </is>
-      </c>
+      <c r="D1907" t="inlineStr"/>
       <c r="E1907" t="inlineStr"/>
       <c r="F1907" t="inlineStr"/>
-      <c r="G1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1907" t="inlineStr"/>
     </row>
     <row r="1908">
       <c r="A1908" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1908" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/02</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr"/>
       <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr">
-        <is>
-          <t>-4.002M</t>
-        </is>
-      </c>
+      <c r="D1908" t="inlineStr"/>
       <c r="E1908" t="inlineStr"/>
       <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1909" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1909" t="inlineStr"/>
-      <c r="D1909" t="inlineStr">
-        <is>
-          <t>-0.663M</t>
-        </is>
-      </c>
-      <c r="E1909" t="inlineStr"/>
-      <c r="F1909" t="inlineStr"/>
-      <c r="G1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1910" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1910" t="inlineStr"/>
-      <c r="D1910" t="inlineStr">
-        <is>
-          <t>0.682M</t>
-        </is>
-      </c>
-      <c r="E1910" t="inlineStr"/>
-      <c r="F1910" t="inlineStr"/>
-      <c r="G1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1911" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1911" t="inlineStr"/>
-      <c r="D1911" t="inlineStr">
-        <is>
-          <t>-0.017M</t>
-        </is>
-      </c>
-      <c r="E1911" t="inlineStr"/>
-      <c r="F1911" t="inlineStr"/>
-      <c r="G1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1912" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1912" t="inlineStr"/>
-      <c r="D1912" t="inlineStr">
-        <is>
-          <t>0.937M</t>
-        </is>
-      </c>
-      <c r="E1912" t="inlineStr"/>
-      <c r="F1912" t="inlineStr"/>
-      <c r="G1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1913" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1913" t="inlineStr"/>
-      <c r="D1913" t="inlineStr">
-        <is>
-          <t>-0.616M</t>
-        </is>
-      </c>
-      <c r="E1913" t="inlineStr"/>
-      <c r="F1913" t="inlineStr"/>
-      <c r="G1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1914" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1914" t="inlineStr"/>
-      <c r="D1914" t="inlineStr">
-        <is>
-          <t>0.252M</t>
-        </is>
-      </c>
-      <c r="E1914" t="inlineStr"/>
-      <c r="F1914" t="inlineStr"/>
-      <c r="G1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1915" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1915" t="inlineStr"/>
-      <c r="D1915" t="inlineStr">
-        <is>
-          <t>0.189M</t>
-        </is>
-      </c>
-      <c r="E1915" t="inlineStr"/>
-      <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1916" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E1916" t="inlineStr"/>
-      <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1917" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1917" t="inlineStr"/>
-      <c r="D1917" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1917" t="inlineStr"/>
-      <c r="F1917" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="inlineStr"/>
-      <c r="B1918" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1918" t="inlineStr"/>
-      <c r="D1918" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1918" t="inlineStr"/>
-      <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="inlineStr"/>
-      <c r="B1919" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1919" t="inlineStr"/>
-      <c r="D1919" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1919" t="inlineStr"/>
-      <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="inlineStr">
-        <is>
-          <t>Thursday May 08 2025</t>
-        </is>
-      </c>
-      <c r="B1920" t="inlineStr"/>
-      <c r="C1920" t="inlineStr"/>
-      <c r="D1920" t="inlineStr"/>
-      <c r="E1920" t="inlineStr"/>
-      <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr"/>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1921" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1921" t="inlineStr"/>
-      <c r="D1921" t="inlineStr"/>
-      <c r="E1921" t="inlineStr"/>
-      <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1922" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeMAR</t>
-        </is>
-      </c>
-      <c r="C1922" t="inlineStr"/>
-      <c r="D1922" t="inlineStr">
-        <is>
-          <t>$-0.81B</t>
-        </is>
-      </c>
-      <c r="E1922" t="inlineStr"/>
-      <c r="F1922" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1923" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C1923" t="inlineStr"/>
-      <c r="D1923" t="inlineStr">
-        <is>
-          <t>241K</t>
-        </is>
-      </c>
-      <c r="E1923" t="inlineStr"/>
-      <c r="F1923" t="inlineStr">
-        <is>
-          <t>246.0K</t>
-        </is>
-      </c>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1924" t="inlineStr"/>
-      <c r="D1924" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1924" t="inlineStr"/>
-      <c r="F1924" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1925" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1925" t="inlineStr"/>
-      <c r="D1925" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1925" t="inlineStr"/>
-      <c r="F1925" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1926" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1926" t="inlineStr"/>
-      <c r="D1926" t="inlineStr">
-        <is>
-          <t>1916K</t>
-        </is>
-      </c>
-      <c r="E1926" t="inlineStr"/>
-      <c r="F1926" t="inlineStr">
-        <is>
-          <t>1921.0K</t>
-        </is>
-      </c>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1927" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/03</t>
-        </is>
-      </c>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr">
-        <is>
-          <t>226K</t>
-        </is>
-      </c>
-      <c r="E1927" t="inlineStr"/>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>231.5K</t>
-        </is>
-      </c>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1928" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1928" t="inlineStr"/>
-      <c r="D1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1929" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/02</t>
-        </is>
-      </c>
-      <c r="C1929" t="inlineStr"/>
-      <c r="D1929" t="inlineStr"/>
-      <c r="E1929" t="inlineStr"/>
-      <c r="F1929" t="inlineStr"/>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1930" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsAPR</t>
-        </is>
-      </c>
-      <c r="C1930" t="inlineStr"/>
-      <c r="D1930" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1930" t="inlineStr"/>
-      <c r="F1930" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1931" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1931" t="inlineStr"/>
-      <c r="D1931" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="E1931" t="inlineStr"/>
-      <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1932" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1932" t="inlineStr"/>
-      <c r="D1932" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1932" t="inlineStr"/>
-      <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1933">
-      <c r="A1933" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1933" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1933" t="inlineStr"/>
-      <c r="D1933" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
-      <c r="E1933" t="inlineStr"/>
-      <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1934">
-      <c r="A1934" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1934" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/08</t>
-        </is>
-      </c>
-      <c r="C1934" t="inlineStr"/>
-      <c r="D1934" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E1934" t="inlineStr"/>
-      <c r="F1934" t="inlineStr"/>
-      <c r="G1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1935">
-      <c r="A1935" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1935" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1935" t="inlineStr"/>
-      <c r="D1935" t="inlineStr">
-        <is>
-          <t>4.813%</t>
-        </is>
-      </c>
-      <c r="E1935" t="inlineStr"/>
-      <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1936">
-      <c r="A1936" t="inlineStr">
-        <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1936" t="inlineStr"/>
-      <c r="C1936" t="inlineStr"/>
-      <c r="D1936" t="inlineStr"/>
-      <c r="E1936" t="inlineStr"/>
-      <c r="F1936" t="inlineStr"/>
-      <c r="G1936" t="inlineStr"/>
-    </row>
-    <row r="1937">
-      <c r="A1937" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1937" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1937" t="inlineStr"/>
-      <c r="D1937" t="inlineStr"/>
-      <c r="E1937" t="inlineStr"/>
-      <c r="F1937" t="inlineStr"/>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1938">
-      <c r="A1938" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1938" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C1938" t="inlineStr"/>
-      <c r="D1938" t="inlineStr"/>
-      <c r="E1938" t="inlineStr"/>
-      <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1939">
-      <c r="A1939" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1939" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1939" t="inlineStr"/>
-      <c r="D1939" t="inlineStr"/>
-      <c r="E1939" t="inlineStr"/>
-      <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1940">
-      <c r="A1940" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1940" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1940" t="inlineStr"/>
-      <c r="D1940" t="inlineStr"/>
-      <c r="E1940" t="inlineStr"/>
-      <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1941">
-      <c r="A1941" t="inlineStr">
-        <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1941" t="inlineStr"/>
-      <c r="C1941" t="inlineStr"/>
-      <c r="D1941" t="inlineStr"/>
-      <c r="E1941" t="inlineStr"/>
-      <c r="F1941" t="inlineStr"/>
-      <c r="G1941" t="inlineStr"/>
-    </row>
-    <row r="1942">
-      <c r="A1942" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1942" t="inlineStr"/>
-      <c r="C1942" t="inlineStr"/>
-      <c r="D1942" t="inlineStr"/>
-      <c r="E1942" t="inlineStr"/>
-      <c r="F1942" t="inlineStr"/>
-      <c r="G1942" t="inlineStr"/>
+      <c r="G1908" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
